--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\Desktop\Sunset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E09E7F-2E57-41CA-85BE-0A6A51B972C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BC6550-06BD-453F-89CE-4E98A227FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11325" xr2:uid="{258851B6-D0BD-468B-8A4D-696A11321FAA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{258851B6-D0BD-468B-8A4D-696A11321FAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Date_sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="nonleap_year" sheetId="1" r:id="rId1"/>
+    <sheet name="leap_year" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
@@ -394,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555A1E7A-8278-4674-82E9-666292632C1A}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,7 +404,4785 @@
     <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.72847222222222219</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.32135416666666666</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.32118055555555558</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.72986111111111118</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.32100694444444444</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.32065972222222222</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.73194444444444451</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.32048611111111114</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.3203125</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.31996527777777778</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.73489583333333341</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.3197916666666667</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.73576388888888899</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.31961805555555556</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.73663194444444446</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.31892361111111112</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.73836805555555562</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.31840277777777781</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.73923611111111109</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.31788194444444445</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.74010416666666667</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.31684027777777779</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.74184027777777783</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44215</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.31631944444444443</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.74270833333333341</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44216</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.31579861111111107</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.74357638888888888</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.31475694444444441</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.74548611111111118</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44219</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.3142361111111111</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44220</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.31371527777777775</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.7475694444444444</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44221</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.74861111111111112</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44222</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.7494791666666667</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44223</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.75034722222222228</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44224</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.75121527777777786</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.75208333333333344</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.30954861111111109</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75312500000000004</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.30868055555555551</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.30781249999999999</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.75520833333333337</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44230</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.30607638888888888</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.7572916666666667</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.3052083333333333</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.75833333333333341</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.30434027777777778</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.75937500000000002</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.76041666666666674</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.30243055555555554</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.76145833333333346</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.30034722222222221</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.76354166666666667</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.29826388888888888</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.76562500000000011</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.29618055555555556</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.76770833333333333</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.29409722222222223</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.76961805555555562</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.7704861111111112</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.29201388888888891</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.77135416666666679</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.77222222222222237</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.28975694444444444</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.77326388888888897</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.2885416666666667</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.77430555555555569</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44248</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.2873263888888889</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.7753472222222223</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.28489583333333335</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.77743055555555562</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.28368055555555555</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.77847222222222234</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.28246527777777775</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.77951388888888895</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.78055555555555567</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.2800347222222222</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.78159722222222228</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.2788194444444444</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.27760416666666665</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.7836805555555556</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44257</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44258</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.78559027777777779</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.78645833333333337</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.78732638888888895</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>44261</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>44262</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.26961805555555557</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.78923611111111114</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.26840277777777777</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.79027777777777775</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>44264</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.26718750000000002</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.79131944444444446</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>44265</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>44266</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.79340277777777779</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.79548611111111112</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.25902777777777775</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.79756944444444444</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>44271</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.25763888888888886</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>44272</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.25624999999999998</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.79965277777777777</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.80156249999999996</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>44275</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.80243055555555554</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>44276</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.80329861111111112</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.80520833333333341</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.24513888888888891</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.80729166666666663</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.24375000000000002</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.80833333333333335</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.24236111111111114</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.80937500000000007</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.85312499999999991</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>44285</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.85503472222222221</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.85590277777777768</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.85677083333333326</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>44289</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.27430555555555558</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>44290</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.27274305555555556</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.85868055555555556</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>44291</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.27118055555555554</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.85972222222222228</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.26961805555555557</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.86076388888888888</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>44293</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.2680555555555556</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>44294</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.86284722222222232</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.86493055555555554</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>44297</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.26128472222222221</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.86701388888888897</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.26006944444444446</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>44300</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.25885416666666666</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.86909722222222219</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.25763888888888886</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.25624999999999998</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.87118055555555562</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>44303</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>44304</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.87326388888888884</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>44306</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.87534722222222228</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>44307</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.87638888888888888</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.87743055555555549</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>44309</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>44310</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.24531249999999999</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.87951388888888893</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>44311</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.24409722222222222</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.24288194444444444</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.88159722222222214</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.24166666666666664</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0.88263888888888886</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>44314</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.2404513888888889</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.88368055555555558</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>44315</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.23923611111111109</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.88472222222222219</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.23802083333333335</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.88576388888888891</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0.23680555555555555</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.88680555555555562</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>44318</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.23559027777777777</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.88784722222222223</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.234375</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0.23315972222222223</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.88993055555555556</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.23194444444444445</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>44322</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.23090277777777779</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.89201388888888888</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>44323</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.22986111111111113</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.89305555555555549</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>44324</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.22881944444444446</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.89409722222222221</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>44325</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.2277777777777778</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.89513888888888893</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.22673611111111111</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0.89600694444444451</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>44327</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0.89687500000000009</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0.22465277777777778</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0.89774305555555556</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.22274305555555557</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0.89965277777777786</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0.22187499999999999</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>44332</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.22100694444444444</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.90173611111111107</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0.21927083333333333</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0.90364583333333337</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>44335</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0.21840277777777778</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0.90451388888888884</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>44336</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0.21753472222222223</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0.90538194444444442</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>44337</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>44338</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0.21579861111111112</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.90711805555555558</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>44339</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0.21493055555555557</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0.90798611111111116</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>44340</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.21406249999999999</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.90885416666666663</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0.21319444444444446</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.2126736111111111</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0.91059027777777779</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>44343</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.2121527777777778</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0.91145833333333337</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>44344</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0.21163194444444444</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0.91232638888888895</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>44345</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0.21111111111111114</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>44346</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0.21059027777777778</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0.91388888888888897</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.21006944444444445</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0.91458333333333341</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0.20954861111111112</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0.91527777777777786</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.20902777777777776</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0.9159722222222223</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>44350</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.20868055555555554</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0.91736111111111118</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>44352</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.20798611111111109</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0.91805555555555562</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.20763888888888887</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0.91875000000000007</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.20729166666666665</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0.91927083333333337</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>44355</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.20694444444444443</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0.91979166666666679</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.20659722222222221</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0.92031250000000009</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.20607638888888891</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0.92118055555555556</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.20590277777777777</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0.92152777777777772</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B165" s="3">
+        <v>0.20572916666666669</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0.921875</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0.20555555555555555</v>
+      </c>
+      <c r="C166" s="3">
+        <v>0.92222222222222217</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0.20555555555555555</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0.92256944444444444</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B168" s="3">
+        <v>0.20555555555555555</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B169" s="3">
+        <v>0.20555555555555555</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0.92326388888888888</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0.20555555555555555</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B171" s="3">
+        <v>0.20572916666666669</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0.9237847222222223</v>
+      </c>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B172" s="3">
+        <v>0.20590277777777777</v>
+      </c>
+      <c r="C172" s="3">
+        <v>0.92395833333333344</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B173" s="3">
+        <v>0.20607638888888891</v>
+      </c>
+      <c r="C173" s="3">
+        <v>0.92413194444444446</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>44369</v>
+      </c>
+      <c r="B174" s="3">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B175" s="3">
+        <v>0.20659722222222221</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B176" s="3">
+        <v>0.20694444444444443</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0.20729166666666665</v>
+      </c>
+      <c r="C177" s="3">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B178" s="3">
+        <v>0.20763888888888887</v>
+      </c>
+      <c r="C178" s="3">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B179" s="3">
+        <v>0.20798611111111109</v>
+      </c>
+      <c r="C179" s="3">
+        <v>0.92413194444444446</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B180" s="3">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="C180" s="3">
+        <v>0.92395833333333344</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B181" s="3">
+        <v>0.20868055555555554</v>
+      </c>
+      <c r="C181" s="3">
+        <v>0.9237847222222223</v>
+      </c>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B182" s="3">
+        <v>0.20902777777777776</v>
+      </c>
+      <c r="C182" s="3">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B183" s="3">
+        <v>0.2097222222222222</v>
+      </c>
+      <c r="C183" s="3">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B184" s="3">
+        <v>0.21024305555555556</v>
+      </c>
+      <c r="C184" s="3">
+        <v>0.92326388888888888</v>
+      </c>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>44380</v>
+      </c>
+      <c r="B185" s="3">
+        <v>0.21076388888888889</v>
+      </c>
+      <c r="C185" s="3">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B186" s="3">
+        <v>0.21128472222222222</v>
+      </c>
+      <c r="C186" s="3">
+        <v>0.92256944444444444</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0.21180555555555558</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0.92222222222222217</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B188" s="3">
+        <v>0.21250000000000002</v>
+      </c>
+      <c r="C188" s="3">
+        <v>0.921875</v>
+      </c>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B189" s="3">
+        <v>0.21319444444444446</v>
+      </c>
+      <c r="C189" s="3">
+        <v>0.92152777777777772</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B190" s="3">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="C190" s="3">
+        <v>0.92118055555555556</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B191" s="3">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="C191" s="3">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>44387</v>
+      </c>
+      <c r="B192" s="3">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C192" s="3">
+        <v>0.92031250000000009</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>44388</v>
+      </c>
+      <c r="B193" s="3">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="C193" s="3">
+        <v>0.91979166666666679</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B194" s="3">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="C194" s="3">
+        <v>0.91927083333333337</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B195" s="3">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="C195" s="3">
+        <v>0.91875000000000007</v>
+      </c>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B196" s="3">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="C196" s="3">
+        <v>0.91805555555555562</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B197" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="C197" s="3">
+        <v>0.91736111111111118</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B198" s="3">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="C198" s="3">
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B199" s="3">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0.9159722222222223</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>44395</v>
+      </c>
+      <c r="B200" s="3">
+        <v>0.22100694444444444</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0.91510416666666672</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0.22187499999999999</v>
+      </c>
+      <c r="C201" s="3">
+        <v>0.91423611111111114</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B202" s="3">
+        <v>0.22274305555555557</v>
+      </c>
+      <c r="C202" s="3">
+        <v>0.91336805555555556</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B203" s="3">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="C203" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>44399</v>
+      </c>
+      <c r="B204" s="3">
+        <v>0.22465277777777778</v>
+      </c>
+      <c r="C204" s="3">
+        <v>0.9116319444444444</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B205" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="C205" s="3">
+        <v>0.91076388888888893</v>
+      </c>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>44401</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0.22673611111111111</v>
+      </c>
+      <c r="C206" s="3">
+        <v>0.90989583333333335</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>44402</v>
+      </c>
+      <c r="B207" s="3">
+        <v>0.2277777777777778</v>
+      </c>
+      <c r="C207" s="3">
+        <v>0.90902777777777777</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B208" s="3">
+        <v>0.22864583333333333</v>
+      </c>
+      <c r="C208" s="3">
+        <v>0.90815972222222219</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B209" s="3">
+        <v>0.22951388888888891</v>
+      </c>
+      <c r="C209" s="3">
+        <v>0.90729166666666661</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B210" s="3">
+        <v>0.23038194444444443</v>
+      </c>
+      <c r="C210" s="3">
+        <v>0.90642361111111114</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B211" s="3">
+        <v>0.23125000000000001</v>
+      </c>
+      <c r="C211" s="3">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0.23229166666666667</v>
+      </c>
+      <c r="C212" s="3">
+        <v>0.90451388888888884</v>
+      </c>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B213" s="3">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="C213" s="3">
+        <v>0.90347222222222223</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0.234375</v>
+      </c>
+      <c r="C214" s="3">
+        <v>0.90243055555555562</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B215" s="3">
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="C215" s="3">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>44411</v>
+      </c>
+      <c r="B216" s="3">
+        <v>0.23628472222222222</v>
+      </c>
+      <c r="C216" s="3">
+        <v>0.90017361111111116</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B217" s="3">
+        <v>0.23715277777777777</v>
+      </c>
+      <c r="C217" s="3">
+        <v>0.8989583333333333</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0.23802083333333335</v>
+      </c>
+      <c r="C218" s="3">
+        <v>0.89774305555555545</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B219" s="3">
+        <v>0.23888888888888887</v>
+      </c>
+      <c r="C219" s="3">
+        <v>0.8965277777777777</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B220" s="3">
+        <v>0.23993055555555556</v>
+      </c>
+      <c r="C220" s="3">
+        <v>0.89531249999999996</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B221" s="3">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="C221" s="3">
+        <v>0.8940972222222221</v>
+      </c>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B222" s="3">
+        <v>0.24201388888888889</v>
+      </c>
+      <c r="C222" s="3">
+        <v>0.89288194444444435</v>
+      </c>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B223" s="3">
+        <v>0.24305555555555558</v>
+      </c>
+      <c r="C223" s="3">
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B224" s="3">
+        <v>0.24409722222222224</v>
+      </c>
+      <c r="C224" s="3">
+        <v>0.89045138888888886</v>
+      </c>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B225" s="3">
+        <v>0.24513888888888891</v>
+      </c>
+      <c r="C225" s="3">
+        <v>0.88923611111111112</v>
+      </c>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B226" s="3">
+        <v>0.24618055555555557</v>
+      </c>
+      <c r="C226" s="3">
+        <v>0.88802083333333337</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B227" s="3">
+        <v>0.24722222222222223</v>
+      </c>
+      <c r="C227" s="3">
+        <v>0.88680555555555562</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B228" s="3">
+        <v>0.24809027777777778</v>
+      </c>
+      <c r="C228" s="3">
+        <v>0.88559027777777788</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B229" s="3">
+        <v>0.24895833333333334</v>
+      </c>
+      <c r="C229" s="3">
+        <v>0.88437500000000013</v>
+      </c>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B230" s="3">
+        <v>0.24982638888888889</v>
+      </c>
+      <c r="C230" s="3">
+        <v>0.88315972222222228</v>
+      </c>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B231" s="3">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="C231" s="3">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B232" s="3">
+        <v>0.2517361111111111</v>
+      </c>
+      <c r="C232" s="3">
+        <v>0.88055555555555565</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B233" s="3">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="C233" s="3">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B234" s="3">
+        <v>0.25381944444444449</v>
+      </c>
+      <c r="C234" s="3">
+        <v>0.87777777777777788</v>
+      </c>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B235" s="3">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="C235" s="3">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B236" s="3">
+        <v>0.25590277777777781</v>
+      </c>
+      <c r="C236" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B237" s="3">
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="C237" s="3">
+        <v>0.87361111111111112</v>
+      </c>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B238" s="3">
+        <v>0.25798611111111114</v>
+      </c>
+      <c r="C238" s="3">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B239" s="3">
+        <v>0.25902777777777775</v>
+      </c>
+      <c r="C239" s="3">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B240" s="3">
+        <v>0.25989583333333333</v>
+      </c>
+      <c r="C240" s="3">
+        <v>0.86944444444444435</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B241" s="3">
+        <v>0.26076388888888891</v>
+      </c>
+      <c r="C241" s="3">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B242" s="3">
+        <v>0.26163194444444443</v>
+      </c>
+      <c r="C242" s="3">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B243" s="3">
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="C243" s="3">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B244" s="3">
+        <v>0.26354166666666667</v>
+      </c>
+      <c r="C244" s="3">
+        <v>0.86388888888888882</v>
+      </c>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B245" s="3">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="C245" s="3">
+        <v>0.86249999999999993</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B246" s="3">
+        <v>0.265625</v>
+      </c>
+      <c r="C246" s="3">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B247" s="3">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C247" s="3">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B248" s="3">
+        <v>0.26753472222222219</v>
+      </c>
+      <c r="C248" s="3">
+        <v>0.85833333333333328</v>
+      </c>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B249" s="3">
+        <v>0.26840277777777777</v>
+      </c>
+      <c r="C249" s="3">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B250" s="3">
+        <v>0.26927083333333335</v>
+      </c>
+      <c r="C250" s="3">
+        <v>0.85555555555555551</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>44446</v>
+      </c>
+      <c r="B251" s="3">
+        <v>0.27013888888888893</v>
+      </c>
+      <c r="C251" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B252" s="3">
+        <v>0.27118055555555554</v>
+      </c>
+      <c r="C252" s="3">
+        <v>0.85277777777777775</v>
+      </c>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B253" s="3">
+        <v>0.27222222222222225</v>
+      </c>
+      <c r="C253" s="3">
+        <v>0.85138888888888886</v>
+      </c>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B254" s="3">
+        <v>0.27326388888888886</v>
+      </c>
+      <c r="C254" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B255" s="3">
+        <v>0.27430555555555558</v>
+      </c>
+      <c r="C255" s="3">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>44451</v>
+      </c>
+      <c r="B256" s="3">
+        <v>0.2751736111111111</v>
+      </c>
+      <c r="C256" s="3">
+        <v>0.84704861111111107</v>
+      </c>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B257" s="3">
+        <v>0.27604166666666663</v>
+      </c>
+      <c r="C257" s="3">
+        <v>0.84548611111111105</v>
+      </c>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>44453</v>
+      </c>
+      <c r="B258" s="3">
+        <v>0.27690972222222221</v>
+      </c>
+      <c r="C258" s="3">
+        <v>0.84392361111111103</v>
+      </c>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B259" s="3">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C259" s="3">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>44455</v>
+      </c>
+      <c r="B260" s="3">
+        <v>0.2788194444444444</v>
+      </c>
+      <c r="C260" s="3">
+        <v>0.84097222222222212</v>
+      </c>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>44456</v>
+      </c>
+      <c r="B261" s="3">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="C261" s="3">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>44457</v>
+      </c>
+      <c r="B262" s="3">
+        <v>0.28090277777777778</v>
+      </c>
+      <c r="C262" s="3">
+        <v>0.83819444444444435</v>
+      </c>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>44458</v>
+      </c>
+      <c r="B263" s="3">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="C263" s="3">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>44459</v>
+      </c>
+      <c r="B264" s="3">
+        <v>0.28281250000000002</v>
+      </c>
+      <c r="C264" s="3">
+        <v>0.83541666666666659</v>
+      </c>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>44460</v>
+      </c>
+      <c r="B265" s="3">
+        <v>0.28368055555555555</v>
+      </c>
+      <c r="C265" s="3">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>44461</v>
+      </c>
+      <c r="B266" s="3">
+        <v>0.28454861111111113</v>
+      </c>
+      <c r="C266" s="3">
+        <v>0.83263888888888882</v>
+      </c>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>44462</v>
+      </c>
+      <c r="B267" s="3">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="C267" s="3">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>44463</v>
+      </c>
+      <c r="B268" s="3">
+        <v>0.28628472222222223</v>
+      </c>
+      <c r="C268" s="3">
+        <v>0.82986111111111105</v>
+      </c>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>44464</v>
+      </c>
+      <c r="B269" s="3">
+        <v>0.28715277777777781</v>
+      </c>
+      <c r="C269" s="3">
+        <v>0.82847222222222217</v>
+      </c>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>44465</v>
+      </c>
+      <c r="B270" s="3">
+        <v>0.28802083333333334</v>
+      </c>
+      <c r="C270" s="3">
+        <v>0.82708333333333328</v>
+      </c>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B271" s="3">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="C271" s="3">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>44467</v>
+      </c>
+      <c r="B272" s="3">
+        <v>0.28993055555555558</v>
+      </c>
+      <c r="C272" s="3">
+        <v>0.82430555555555551</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>44468</v>
+      </c>
+      <c r="B273" s="3">
+        <v>0.29097222222222219</v>
+      </c>
+      <c r="C273" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B274" s="3">
+        <v>0.29201388888888891</v>
+      </c>
+      <c r="C274" s="3">
+        <v>0.82152777777777775</v>
+      </c>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B275" s="3">
+        <v>0.29305555555555551</v>
+      </c>
+      <c r="C275" s="3">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>44471</v>
+      </c>
+      <c r="B276" s="3">
+        <v>0.29392361111111109</v>
+      </c>
+      <c r="C276" s="3">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>44472</v>
+      </c>
+      <c r="B277" s="3">
+        <v>0.29479166666666667</v>
+      </c>
+      <c r="C277" s="3">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>44473</v>
+      </c>
+      <c r="B278" s="3">
+        <v>0.2956597222222222</v>
+      </c>
+      <c r="C278" s="3">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>44474</v>
+      </c>
+      <c r="B279" s="3">
+        <v>0.29652777777777772</v>
+      </c>
+      <c r="C279" s="3">
+        <v>0.81458333333333333</v>
+      </c>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>44475</v>
+      </c>
+      <c r="B280" s="3">
+        <v>0.2973958333333333</v>
+      </c>
+      <c r="C280" s="3">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>44476</v>
+      </c>
+      <c r="B281" s="3">
+        <v>0.29826388888888888</v>
+      </c>
+      <c r="C281" s="3">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>44477</v>
+      </c>
+      <c r="B282" s="3">
+        <v>0.29913194444444446</v>
+      </c>
+      <c r="C282" s="3">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>44478</v>
+      </c>
+      <c r="B283" s="3">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C283" s="3">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>44479</v>
+      </c>
+      <c r="B284" s="3">
+        <v>0.30104166666666665</v>
+      </c>
+      <c r="C284" s="3">
+        <v>0.80781250000000004</v>
+      </c>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>44480</v>
+      </c>
+      <c r="B285" s="3">
+        <v>0.30208333333333337</v>
+      </c>
+      <c r="C285" s="3">
+        <v>0.80659722222222219</v>
+      </c>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>44481</v>
+      </c>
+      <c r="B286" s="3">
+        <v>0.30312499999999998</v>
+      </c>
+      <c r="C286" s="3">
+        <v>0.80538194444444444</v>
+      </c>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>44482</v>
+      </c>
+      <c r="B287" s="3">
+        <v>0.3041666666666667</v>
+      </c>
+      <c r="C287" s="3">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B288" s="3">
+        <v>0.30503472222222222</v>
+      </c>
+      <c r="C288" s="3">
+        <v>0.80295138888888895</v>
+      </c>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B289" s="3">
+        <v>0.3059027777777778</v>
+      </c>
+      <c r="C289" s="3">
+        <v>0.8017361111111112</v>
+      </c>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B290" s="3">
+        <v>0.30677083333333333</v>
+      </c>
+      <c r="C290" s="3">
+        <v>0.80052083333333335</v>
+      </c>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B291" s="3">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="C291" s="3">
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B292" s="3">
+        <v>0.30868055555555557</v>
+      </c>
+      <c r="C292" s="3">
+        <v>0.79809027777777786</v>
+      </c>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B293" s="3">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="C293" s="3">
+        <v>0.796875</v>
+      </c>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B294" s="3">
+        <v>0.3107638888888889</v>
+      </c>
+      <c r="C294" s="3">
+        <v>0.79565972222222214</v>
+      </c>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B295" s="3">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="C295" s="3">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B296" s="3">
+        <v>0.31267361111111114</v>
+      </c>
+      <c r="C296" s="3">
+        <v>0.79322916666666665</v>
+      </c>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B297" s="3">
+        <v>0.31354166666666666</v>
+      </c>
+      <c r="C297" s="3">
+        <v>0.7920138888888888</v>
+      </c>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B298" s="3">
+        <v>0.31440972222222219</v>
+      </c>
+      <c r="C298" s="3">
+        <v>0.79079861111111105</v>
+      </c>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B299" s="3">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="C299" s="3">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B300" s="3">
+        <v>0.31631944444444443</v>
+      </c>
+      <c r="C300" s="3">
+        <v>0.7885416666666667</v>
+      </c>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B301" s="3">
+        <v>0.31736111111111109</v>
+      </c>
+      <c r="C301" s="3">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B302" s="3">
+        <v>0.31840277777777781</v>
+      </c>
+      <c r="C302" s="3">
+        <v>0.78645833333333326</v>
+      </c>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B303" s="3">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="C303" s="3">
+        <v>0.78541666666666665</v>
+      </c>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B304" s="3">
+        <v>0.32048611111111114</v>
+      </c>
+      <c r="C304" s="3">
+        <v>0.78437500000000004</v>
+      </c>
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B305" s="3">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="C305" s="3">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B306" s="3">
+        <v>0.28090277777777778</v>
+      </c>
+      <c r="C306" s="3">
+        <v>0.74062499999999998</v>
+      </c>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B307" s="3">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="C307" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B308" s="3">
+        <v>0.28281249999999997</v>
+      </c>
+      <c r="C308" s="3">
+        <v>0.73871527777777779</v>
+      </c>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>44504</v>
+      </c>
+      <c r="B309" s="3">
+        <v>0.28368055555555555</v>
+      </c>
+      <c r="C309" s="3">
+        <v>0.73784722222222221</v>
+      </c>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B310" s="3">
+        <v>0.28454861111111107</v>
+      </c>
+      <c r="C310" s="3">
+        <v>0.73697916666666674</v>
+      </c>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B311" s="3">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="C311" s="3">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B312" s="3">
+        <v>0.28645833333333331</v>
+      </c>
+      <c r="C312" s="3">
+        <v>0.73524305555555558</v>
+      </c>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B313" s="3">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="C313" s="3">
+        <v>0.73437500000000011</v>
+      </c>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>44509</v>
+      </c>
+      <c r="B314" s="3">
+        <v>0.28854166666666664</v>
+      </c>
+      <c r="C314" s="3">
+        <v>0.73350694444444453</v>
+      </c>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B315" s="3">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="C315" s="3">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B316" s="3">
+        <v>0.29045138888888888</v>
+      </c>
+      <c r="C316" s="3">
+        <v>0.73194444444444451</v>
+      </c>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B317" s="3">
+        <v>0.29131944444444446</v>
+      </c>
+      <c r="C317" s="3">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B318" s="3">
+        <v>0.29218749999999999</v>
+      </c>
+      <c r="C318" s="3">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>44514</v>
+      </c>
+      <c r="B319" s="3">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="C319" s="3">
+        <v>0.72986111111111118</v>
+      </c>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B320" s="3">
+        <v>0.29392361111111109</v>
+      </c>
+      <c r="C320" s="3">
+        <v>0.72916666666666674</v>
+      </c>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>44516</v>
+      </c>
+      <c r="B321" s="3">
+        <v>0.29479166666666667</v>
+      </c>
+      <c r="C321" s="3">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B322" s="3">
+        <v>0.2956597222222222</v>
+      </c>
+      <c r="C322" s="3">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>44518</v>
+      </c>
+      <c r="B323" s="3">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="C323" s="3">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B324" s="3">
+        <v>0.29756944444444444</v>
+      </c>
+      <c r="C324" s="3">
+        <v>0.7265625</v>
+      </c>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>44520</v>
+      </c>
+      <c r="B325" s="3">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C325" s="3">
+        <v>0.7260416666666667</v>
+      </c>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>44521</v>
+      </c>
+      <c r="B326" s="3">
+        <v>0.29965277777777777</v>
+      </c>
+      <c r="C326" s="3">
+        <v>0.72552083333333339</v>
+      </c>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B327" s="3">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="C327" s="3">
+        <v>0.72500000000000009</v>
+      </c>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>44523</v>
+      </c>
+      <c r="B328" s="3">
+        <v>0.30156250000000001</v>
+      </c>
+      <c r="C328" s="3">
+        <v>0.72447916666666667</v>
+      </c>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>44524</v>
+      </c>
+      <c r="B329" s="3">
+        <v>0.30243055555555554</v>
+      </c>
+      <c r="C329" s="3">
+        <v>0.72395833333333337</v>
+      </c>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B330" s="3">
+        <v>0.30329861111111112</v>
+      </c>
+      <c r="C330" s="3">
+        <v>0.72343750000000007</v>
+      </c>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B331" s="3">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="C331" s="3">
+        <v>0.72291666666666665</v>
+      </c>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>44527</v>
+      </c>
+      <c r="B332" s="3">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="C332" s="3">
+        <v>0.72256944444444449</v>
+      </c>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>44528</v>
+      </c>
+      <c r="B333" s="3">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C333" s="3">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>44529</v>
+      </c>
+      <c r="B334" s="3">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="C334" s="3">
+        <v>0.72187499999999993</v>
+      </c>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B335" s="3">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="C335" s="3">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="D335" s="3"/>
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B336" s="3">
+        <v>0.30781249999999999</v>
+      </c>
+      <c r="C336" s="3">
+        <v>0.72135416666666663</v>
+      </c>
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>44532</v>
+      </c>
+      <c r="B337" s="3">
+        <v>0.30868055555555551</v>
+      </c>
+      <c r="C337" s="3">
+        <v>0.7211805555555556</v>
+      </c>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>44533</v>
+      </c>
+      <c r="B338" s="3">
+        <v>0.30954861111111109</v>
+      </c>
+      <c r="C338" s="3">
+        <v>0.72100694444444458</v>
+      </c>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>44534</v>
+      </c>
+      <c r="B339" s="3">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="C339" s="3">
+        <v>0.72083333333333344</v>
+      </c>
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>44535</v>
+      </c>
+      <c r="B340" s="3">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="C340" s="3">
+        <v>0.72083333333333344</v>
+      </c>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>44536</v>
+      </c>
+      <c r="B341" s="3">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="C341" s="3">
+        <v>0.72083333333333344</v>
+      </c>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>44537</v>
+      </c>
+      <c r="B342" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="C342" s="3">
+        <v>0.72083333333333344</v>
+      </c>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>44538</v>
+      </c>
+      <c r="B343" s="3">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="C343" s="3">
+        <v>0.72083333333333344</v>
+      </c>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>44539</v>
+      </c>
+      <c r="B344" s="3">
+        <v>0.31371527777777775</v>
+      </c>
+      <c r="C344" s="3">
+        <v>0.72083333333333344</v>
+      </c>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>44540</v>
+      </c>
+      <c r="B345" s="3">
+        <v>0.3142361111111111</v>
+      </c>
+      <c r="C345" s="3">
+        <v>0.72083333333333344</v>
+      </c>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>44541</v>
+      </c>
+      <c r="B346" s="3">
+        <v>0.31475694444444441</v>
+      </c>
+      <c r="C346" s="3">
+        <v>0.72083333333333344</v>
+      </c>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>44542</v>
+      </c>
+      <c r="B347" s="3">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="C347" s="3">
+        <v>0.72083333333333344</v>
+      </c>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B348" s="3">
+        <v>0.31579861111111107</v>
+      </c>
+      <c r="C348" s="3">
+        <v>0.72100694444444458</v>
+      </c>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>44544</v>
+      </c>
+      <c r="B349" s="3">
+        <v>0.31631944444444443</v>
+      </c>
+      <c r="C349" s="3">
+        <v>0.7211805555555556</v>
+      </c>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B350" s="3">
+        <v>0.31684027777777779</v>
+      </c>
+      <c r="C350" s="3">
+        <v>0.72135416666666663</v>
+      </c>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>44546</v>
+      </c>
+      <c r="B351" s="3">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="C351" s="3">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>44547</v>
+      </c>
+      <c r="B352" s="3">
+        <v>0.31770833333333337</v>
+      </c>
+      <c r="C352" s="3">
+        <v>0.72187499999999993</v>
+      </c>
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>44548</v>
+      </c>
+      <c r="B353" s="3">
+        <v>0.31805555555555559</v>
+      </c>
+      <c r="C353" s="3">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>44549</v>
+      </c>
+      <c r="B354" s="3">
+        <v>0.31840277777777781</v>
+      </c>
+      <c r="C354" s="3">
+        <v>0.72256944444444449</v>
+      </c>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B355" s="3">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="C355" s="3">
+        <v>0.72291666666666665</v>
+      </c>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>44551</v>
+      </c>
+      <c r="B356" s="3">
+        <v>0.31909722222222225</v>
+      </c>
+      <c r="C356" s="3">
+        <v>0.72326388888888882</v>
+      </c>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>44552</v>
+      </c>
+      <c r="B357" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C357" s="3">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>44553</v>
+      </c>
+      <c r="B358" s="3">
+        <v>0.3197916666666667</v>
+      </c>
+      <c r="C358" s="3">
+        <v>0.72395833333333337</v>
+      </c>
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>44554</v>
+      </c>
+      <c r="B359" s="3">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="C359" s="3">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>44555</v>
+      </c>
+      <c r="B360" s="3">
+        <v>0.3203125</v>
+      </c>
+      <c r="C360" s="3">
+        <v>0.72482638888888895</v>
+      </c>
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>44556</v>
+      </c>
+      <c r="B361" s="3">
+        <v>0.32048611111111114</v>
+      </c>
+      <c r="C361" s="3">
+        <v>0.72534722222222225</v>
+      </c>
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>44557</v>
+      </c>
+      <c r="B362" s="3">
+        <v>0.32065972222222222</v>
+      </c>
+      <c r="C362" s="3">
+        <v>0.72586805555555556</v>
+      </c>
+      <c r="D362" s="3"/>
+      <c r="E362" s="3"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>44558</v>
+      </c>
+      <c r="B363" s="3">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="C363" s="3">
+        <v>0.72638888888888897</v>
+      </c>
+      <c r="D363" s="3"/>
+      <c r="E363" s="3"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>44559</v>
+      </c>
+      <c r="B364" s="3">
+        <v>0.32083866346484735</v>
+      </c>
+      <c r="C364" s="3">
+        <v>0.72640332076544434</v>
+      </c>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>44560</v>
+      </c>
+      <c r="B365" s="3">
+        <v>0.32084399359636129</v>
+      </c>
+      <c r="C365" s="3">
+        <v>0.72641775264199981</v>
+      </c>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B366" s="3">
+        <v>0.32084932372787528</v>
+      </c>
+      <c r="C366" s="3">
+        <v>0.72643218451855518</v>
+      </c>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB846DFE-32B3-4338-8B59-AB942678A9A2}">
+  <dimension ref="A1:C367"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -419,7 +5198,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44197</v>
+        <v>45292</v>
       </c>
       <c r="B2" s="3">
         <v>0.23819444444444446</v>
@@ -430,7 +5209,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44198</v>
+        <v>45293</v>
       </c>
       <c r="B3" s="3">
         <v>0.23802083333333335</v>
@@ -441,7 +5220,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44199</v>
+        <v>45294</v>
       </c>
       <c r="B4" s="3">
         <v>0.23784722222222224</v>
@@ -452,7 +5231,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44200</v>
+        <v>45295</v>
       </c>
       <c r="B5" s="3">
         <v>0.23767361111111113</v>
@@ -463,7 +5242,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44201</v>
+        <v>45296</v>
       </c>
       <c r="B6" s="3">
         <v>0.23750000000000002</v>
@@ -474,7 +5253,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>44202</v>
+        <v>45297</v>
       </c>
       <c r="B7" s="3">
         <v>0.23732638888888891</v>
@@ -485,7 +5264,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>44203</v>
+        <v>45298</v>
       </c>
       <c r="B8" s="3">
         <v>0.2371527777777778</v>
@@ -496,7 +5275,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>44204</v>
+        <v>45299</v>
       </c>
       <c r="B9" s="3">
         <v>0.23697916666666669</v>
@@ -507,7 +5286,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>44205</v>
+        <v>45300</v>
       </c>
       <c r="B10" s="3">
         <v>0.23680555555555557</v>
@@ -518,7 +5297,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>44206</v>
+        <v>45301</v>
       </c>
       <c r="B11" s="3">
         <v>0.23663194444444446</v>
@@ -529,7 +5308,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>44207</v>
+        <v>45302</v>
       </c>
       <c r="B12" s="3">
         <v>0.23645833333333335</v>
@@ -540,7 +5319,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>44208</v>
+        <v>45303</v>
       </c>
       <c r="B13" s="3">
         <v>0.23628472222222224</v>
@@ -551,7 +5330,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44209</v>
+        <v>45304</v>
       </c>
       <c r="B14" s="3">
         <v>0.23611111111111113</v>
@@ -562,7 +5341,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44210</v>
+        <v>45305</v>
       </c>
       <c r="B15" s="3">
         <v>0.2355902777777778</v>
@@ -573,7 +5352,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44211</v>
+        <v>45306</v>
       </c>
       <c r="B16" s="3">
         <v>0.23506944444444447</v>
@@ -584,7 +5363,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>44212</v>
+        <v>45307</v>
       </c>
       <c r="B17" s="3">
         <v>0.23454861111111114</v>
@@ -595,7 +5374,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>44213</v>
+        <v>45308</v>
       </c>
       <c r="B18" s="3">
         <v>0.23402777777777781</v>
@@ -606,7 +5385,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>44214</v>
+        <v>45309</v>
       </c>
       <c r="B19" s="3">
         <v>0.23350694444444448</v>
@@ -617,7 +5396,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>44215</v>
+        <v>45310</v>
       </c>
       <c r="B20" s="3">
         <v>0.23298611111111112</v>
@@ -628,7 +5407,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>44216</v>
+        <v>45311</v>
       </c>
       <c r="B21" s="3">
         <v>0.23246527777777776</v>
@@ -639,7 +5418,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>44217</v>
+        <v>45312</v>
       </c>
       <c r="B22" s="3">
         <v>0.23194444444444443</v>
@@ -650,7 +5429,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>44218</v>
+        <v>45313</v>
       </c>
       <c r="B23" s="3">
         <v>0.23142361111111109</v>
@@ -661,7 +5440,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>44219</v>
+        <v>45314</v>
       </c>
       <c r="B24" s="3">
         <v>0.23090277777777776</v>
@@ -672,7 +5451,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44220</v>
+        <v>45315</v>
       </c>
       <c r="B25" s="3">
         <v>0.23038194444444443</v>
@@ -683,7 +5462,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>44221</v>
+        <v>45316</v>
       </c>
       <c r="B26" s="3">
         <v>0.2298611111111111</v>
@@ -694,7 +5473,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>44222</v>
+        <v>45317</v>
       </c>
       <c r="B27" s="3">
         <v>0.22916666666666666</v>
@@ -705,7 +5484,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>44223</v>
+        <v>45318</v>
       </c>
       <c r="B28" s="3">
         <v>0.22847222222222222</v>
@@ -716,7 +5495,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>44224</v>
+        <v>45319</v>
       </c>
       <c r="B29" s="3">
         <v>0.22777777777777777</v>
@@ -727,7 +5506,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>44225</v>
+        <v>45320</v>
       </c>
       <c r="B30" s="3">
         <v>0.22708333333333333</v>
@@ -738,7 +5517,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>44226</v>
+        <v>45321</v>
       </c>
       <c r="B31" s="3">
         <v>0.22621527777777778</v>
@@ -749,7 +5528,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>44227</v>
+        <v>45322</v>
       </c>
       <c r="B32" s="3">
         <v>0.2253472222222222</v>
@@ -760,7 +5539,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>44228</v>
+        <v>45323</v>
       </c>
       <c r="B33" s="3">
         <v>0.22447916666666665</v>
@@ -771,7 +5550,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>44229</v>
+        <v>45324</v>
       </c>
       <c r="B34" s="3">
         <v>0.22361111111111109</v>
@@ -782,7 +5561,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44230</v>
+        <v>45325</v>
       </c>
       <c r="B35" s="3">
         <v>0.22274305555555554</v>
@@ -793,7 +5572,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>44231</v>
+        <v>45326</v>
       </c>
       <c r="B36" s="3">
         <v>0.22187499999999999</v>
@@ -804,7 +5583,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>44232</v>
+        <v>45327</v>
       </c>
       <c r="B37" s="3">
         <v>0.22100694444444444</v>
@@ -815,7 +5594,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>44233</v>
+        <v>45328</v>
       </c>
       <c r="B38" s="3">
         <v>0.22013888888888888</v>
@@ -826,7 +5605,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>44234</v>
+        <v>45329</v>
       </c>
       <c r="B39" s="3">
         <v>0.21909722222222222</v>
@@ -837,7 +5616,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44235</v>
+        <v>45330</v>
       </c>
       <c r="B40" s="3">
         <v>0.21805555555555556</v>
@@ -848,7 +5627,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44236</v>
+        <v>45331</v>
       </c>
       <c r="B41" s="3">
         <v>0.2170138888888889</v>
@@ -859,7 +5638,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44237</v>
+        <v>45332</v>
       </c>
       <c r="B42" s="3">
         <v>0.21597222222222223</v>
@@ -870,7 +5649,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44238</v>
+        <v>45333</v>
       </c>
       <c r="B43" s="3">
         <v>0.21493055555555557</v>
@@ -881,7 +5660,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44239</v>
+        <v>45334</v>
       </c>
       <c r="B44" s="3">
         <v>0.21388888888888891</v>
@@ -892,7 +5671,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44240</v>
+        <v>45335</v>
       </c>
       <c r="B45" s="3">
         <v>0.21284722222222222</v>
@@ -903,7 +5682,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44241</v>
+        <v>45336</v>
       </c>
       <c r="B46" s="3">
         <v>0.21180555555555555</v>
@@ -914,7 +5693,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44242</v>
+        <v>45337</v>
       </c>
       <c r="B47" s="3">
         <v>0.21076388888888889</v>
@@ -925,7 +5704,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44243</v>
+        <v>45338</v>
       </c>
       <c r="B48" s="3">
         <v>0.20972222222222223</v>
@@ -936,7 +5715,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44244</v>
+        <v>45339</v>
       </c>
       <c r="B49" s="3">
         <v>0.20868055555555556</v>
@@ -947,7 +5726,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44245</v>
+        <v>45340</v>
       </c>
       <c r="B50" s="3">
         <v>0.2076388888888889</v>
@@ -958,7 +5737,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44246</v>
+        <v>45341</v>
       </c>
       <c r="B51" s="3">
         <v>0.20642361111111113</v>
@@ -969,7 +5748,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44247</v>
+        <v>45342</v>
       </c>
       <c r="B52" s="3">
         <v>0.20520833333333335</v>
@@ -980,7 +5759,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44248</v>
+        <v>45343</v>
       </c>
       <c r="B53" s="3">
         <v>0.20399305555555558</v>
@@ -991,7 +5770,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44249</v>
+        <v>45344</v>
       </c>
       <c r="B54" s="3">
         <v>0.20277777777777781</v>
@@ -1002,7 +5781,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44250</v>
+        <v>45345</v>
       </c>
       <c r="B55" s="3">
         <v>0.20156250000000003</v>
@@ -1013,7 +5792,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44251</v>
+        <v>45346</v>
       </c>
       <c r="B56" s="3">
         <v>0.20034722222222223</v>
@@ -1024,7 +5803,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44252</v>
+        <v>45347</v>
       </c>
       <c r="B57" s="3">
         <v>0.19913194444444443</v>
@@ -1035,7 +5814,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44253</v>
+        <v>45348</v>
       </c>
       <c r="B58" s="3">
         <v>0.19791666666666666</v>
@@ -1046,1287 +5825,1286 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44254</v>
+        <v>45349</v>
       </c>
       <c r="B59" s="3">
-        <v>0.19670138888888888</v>
+        <v>0.19694444444444442</v>
       </c>
       <c r="C59" s="3">
-        <v>0.69826388888888891</v>
+        <v>0.69805555555555565</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44255</v>
+        <v>45350</v>
       </c>
       <c r="B60" s="3">
-        <v>0.19548611111111108</v>
+        <v>0.19597222222222221</v>
       </c>
       <c r="C60" s="3">
-        <v>0.69930555555555562</v>
+        <v>0.69888888888888889</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44256</v>
+        <v>45351</v>
       </c>
       <c r="B61" s="3">
-        <v>0.19427083333333331</v>
+        <v>0.1948333333333333</v>
       </c>
       <c r="C61" s="3">
-        <v>0.70034722222222223</v>
+        <v>0.69973611111111111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44257</v>
+        <v>45352</v>
       </c>
       <c r="B62" s="3">
-        <v>0.19305555555555554</v>
+        <v>0.19402777777777777</v>
       </c>
       <c r="C62" s="3">
-        <v>0.70138888888888884</v>
+        <v>0.70055555555555549</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44258</v>
+        <v>45353</v>
       </c>
       <c r="B63" s="3">
-        <v>0.19166666666666665</v>
+        <v>0.19305555555555554</v>
       </c>
       <c r="C63" s="3">
-        <v>0.70225694444444442</v>
+        <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44259</v>
+        <v>45354</v>
       </c>
       <c r="B64" s="3">
-        <v>0.19027777777777777</v>
+        <v>0.19166666666666665</v>
       </c>
       <c r="C64" s="3">
-        <v>0.703125</v>
+        <v>0.70225694444444442</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44260</v>
+        <v>45355</v>
       </c>
       <c r="B65" s="3">
-        <v>0.18888888888888888</v>
+        <v>0.19027777777777777</v>
       </c>
       <c r="C65" s="3">
-        <v>0.70399305555555558</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44261</v>
+        <v>45356</v>
       </c>
       <c r="B66" s="3">
-        <v>0.1875</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="C66" s="3">
-        <v>0.70486111111111116</v>
+        <v>0.70399305555555558</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44262</v>
+        <v>45357</v>
       </c>
       <c r="B67" s="3">
-        <v>0.18628472222222223</v>
+        <v>0.1875</v>
       </c>
       <c r="C67" s="3">
-        <v>0.70590277777777777</v>
+        <v>0.70486111111111116</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44263</v>
+        <v>45358</v>
       </c>
       <c r="B68" s="3">
-        <v>0.18506944444444445</v>
+        <v>0.18628472222222223</v>
       </c>
       <c r="C68" s="3">
-        <v>0.70694444444444438</v>
+        <v>0.70590277777777777</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44264</v>
+        <v>45359</v>
       </c>
       <c r="B69" s="3">
-        <v>0.18385416666666668</v>
+        <v>0.18506944444444445</v>
       </c>
       <c r="C69" s="3">
-        <v>0.70798611111111109</v>
+        <v>0.70694444444444438</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44265</v>
+        <v>45360</v>
       </c>
       <c r="B70" s="3">
-        <v>0.18263888888888891</v>
+        <v>0.18385416666666668</v>
       </c>
       <c r="C70" s="3">
-        <v>0.7090277777777777</v>
+        <v>0.70798611111111109</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44266</v>
+        <v>45361</v>
       </c>
       <c r="B71" s="3">
-        <v>0.18125000000000002</v>
+        <v>0.18263888888888891</v>
       </c>
       <c r="C71" s="3">
-        <v>0.71006944444444442</v>
+        <v>0.7090277777777777</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44267</v>
+        <v>45362</v>
       </c>
       <c r="B72" s="3">
-        <v>0.17986111111111114</v>
+        <v>0.18125000000000002</v>
       </c>
       <c r="C72" s="3">
-        <v>0.71111111111111103</v>
+        <v>0.71006944444444442</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44268</v>
+        <v>45363</v>
       </c>
       <c r="B73" s="3">
-        <v>0.17847222222222223</v>
+        <v>0.17986111111111114</v>
       </c>
       <c r="C73" s="3">
-        <v>0.71215277777777775</v>
+        <v>0.71111111111111103</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44269</v>
+        <v>45364</v>
       </c>
       <c r="B74" s="3">
-        <v>0.17708333333333334</v>
+        <v>0.17847222222222223</v>
       </c>
       <c r="C74" s="3">
-        <v>0.71319444444444446</v>
+        <v>0.71215277777777775</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44270</v>
+        <v>45365</v>
       </c>
       <c r="B75" s="3">
-        <v>0.17569444444444443</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="C75" s="3">
-        <v>0.71423611111111107</v>
+        <v>0.71319444444444446</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44271</v>
+        <v>45366</v>
       </c>
       <c r="B76" s="3">
-        <v>0.17430555555555555</v>
+        <v>0.17569444444444443</v>
       </c>
       <c r="C76" s="3">
-        <v>0.71527777777777768</v>
+        <v>0.71423611111111107</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44272</v>
+        <v>45367</v>
       </c>
       <c r="B77" s="3">
-        <v>0.17291666666666666</v>
+        <v>0.17430555555555555</v>
       </c>
       <c r="C77" s="3">
-        <v>0.7163194444444444</v>
+        <v>0.71527777777777768</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44273</v>
+        <v>45368</v>
       </c>
       <c r="B78" s="3">
-        <v>0.17152777777777775</v>
+        <v>0.17291666666666666</v>
       </c>
       <c r="C78" s="3">
-        <v>0.71736111111111101</v>
+        <v>0.7163194444444444</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44274</v>
+        <v>45369</v>
       </c>
       <c r="B79" s="3">
-        <v>0.17013888888888887</v>
+        <v>0.17152777777777775</v>
       </c>
       <c r="C79" s="3">
-        <v>0.71822916666666659</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44275</v>
+        <v>45370</v>
       </c>
       <c r="B80" s="3">
-        <v>0.16874999999999998</v>
+        <v>0.17013888888888887</v>
       </c>
       <c r="C80" s="3">
-        <v>0.71909722222222217</v>
+        <v>0.71822916666666659</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44276</v>
+        <v>45371</v>
       </c>
       <c r="B81" s="3">
-        <v>0.1673611111111111</v>
+        <v>0.16874999999999998</v>
       </c>
       <c r="C81" s="3">
-        <v>0.71996527777777775</v>
+        <v>0.71909722222222217</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44277</v>
+        <v>45372</v>
       </c>
       <c r="B82" s="3">
-        <v>0.16597222222222222</v>
+        <v>0.1673611111111111</v>
       </c>
       <c r="C82" s="3">
-        <v>0.72083333333333333</v>
+        <v>0.71996527777777775</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44278</v>
+        <v>45373</v>
       </c>
       <c r="B83" s="3">
-        <v>0.16458333333333333</v>
+        <v>0.16597222222222222</v>
       </c>
       <c r="C83" s="3">
-        <v>0.72187500000000004</v>
+        <v>0.72083333333333333</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44279</v>
+        <v>45374</v>
       </c>
       <c r="B84" s="3">
-        <v>0.16319444444444445</v>
+        <v>0.16458333333333333</v>
       </c>
       <c r="C84" s="3">
-        <v>0.72291666666666665</v>
+        <v>0.72187500000000004</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44280</v>
+        <v>45375</v>
       </c>
       <c r="B85" s="3">
-        <v>0.16180555555555556</v>
+        <v>0.16319444444444445</v>
       </c>
       <c r="C85" s="3">
-        <v>0.72395833333333326</v>
+        <v>0.72291666666666665</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44281</v>
+        <v>45376</v>
       </c>
       <c r="B86" s="3">
-        <v>0.16041666666666668</v>
+        <v>0.16180555555555556</v>
       </c>
       <c r="C86" s="3">
-        <v>0.72499999999999998</v>
+        <v>0.72395833333333326</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44282</v>
+        <v>45377</v>
       </c>
       <c r="B87" s="3">
-        <v>0.1590277777777778</v>
+        <v>0.16041666666666668</v>
       </c>
       <c r="C87" s="3">
-        <v>0.7260416666666667</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44283</v>
+        <v>45378</v>
       </c>
       <c r="B88" s="3">
-        <v>0.15763888888888888</v>
+        <v>0.1590277777777778</v>
       </c>
       <c r="C88" s="3">
-        <v>0.7270833333333333</v>
+        <v>0.7260416666666667</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44284</v>
+        <v>45379</v>
       </c>
       <c r="B89" s="3">
-        <v>0.15625</v>
+        <v>0.15763888888888888</v>
       </c>
       <c r="C89" s="3">
-        <v>0.72812499999999991</v>
+        <v>0.7270833333333333</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44285</v>
+        <v>45380</v>
       </c>
       <c r="B90" s="3">
-        <v>0.15486111111111112</v>
+        <v>0.15625</v>
       </c>
       <c r="C90" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.72812499999999991</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44286</v>
+        <v>45381</v>
       </c>
       <c r="B91" s="3">
-        <v>0.15347222222222223</v>
+        <v>0.15486111111111112</v>
       </c>
       <c r="C91" s="3">
-        <v>0.73003472222222221</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44287</v>
+        <v>45382</v>
       </c>
       <c r="B92" s="3">
-        <v>0.15208333333333335</v>
+        <v>0.15347222222222223</v>
       </c>
       <c r="C92" s="3">
-        <v>0.73090277777777768</v>
+        <v>0.73003472222222221</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44288</v>
+        <v>45383</v>
       </c>
       <c r="B93" s="3">
-        <v>0.15069444444444444</v>
+        <v>0.15208333333333335</v>
       </c>
       <c r="C93" s="3">
-        <v>0.73177083333333326</v>
+        <v>0.73090277777777768</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44289</v>
+        <v>45384</v>
       </c>
       <c r="B94" s="3">
-        <v>0.14930555555555555</v>
+        <v>0.15069444444444444</v>
       </c>
       <c r="C94" s="3">
-        <v>0.73263888888888884</v>
+        <v>0.73177083333333326</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44290</v>
+        <v>45385</v>
       </c>
       <c r="B95" s="3">
-        <v>0.14774305555555556</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C95" s="3">
-        <v>0.73368055555555556</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44291</v>
+        <v>45386</v>
       </c>
       <c r="B96" s="3">
-        <v>0.14618055555555556</v>
+        <v>0.14774305555555556</v>
       </c>
       <c r="C96" s="3">
-        <v>0.73472222222222228</v>
+        <v>0.73368055555555556</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44292</v>
+        <v>45387</v>
       </c>
       <c r="B97" s="3">
-        <v>0.14461805555555557</v>
+        <v>0.14618055555555556</v>
       </c>
       <c r="C97" s="3">
-        <v>0.73576388888888888</v>
+        <v>0.73472222222222228</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44293</v>
+        <v>45388</v>
       </c>
       <c r="B98" s="3">
-        <v>0.14305555555555557</v>
+        <v>0.14461805555555557</v>
       </c>
       <c r="C98" s="3">
-        <v>0.7368055555555556</v>
+        <v>0.73576388888888888</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44294</v>
+        <v>45389</v>
       </c>
       <c r="B99" s="3">
-        <v>0.14166666666666666</v>
+        <v>0.14305555555555557</v>
       </c>
       <c r="C99" s="3">
-        <v>0.73784722222222232</v>
+        <v>0.7368055555555556</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44295</v>
+        <v>45390</v>
       </c>
       <c r="B100" s="3">
-        <v>0.14027777777777778</v>
+        <v>0.14166666666666666</v>
       </c>
       <c r="C100" s="3">
-        <v>0.73888888888888893</v>
+        <v>0.73784722222222232</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44296</v>
+        <v>45391</v>
       </c>
       <c r="B101" s="3">
-        <v>0.1388888888888889</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="C101" s="3">
-        <v>0.73993055555555554</v>
+        <v>0.73888888888888893</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44297</v>
+        <v>45392</v>
       </c>
       <c r="B102" s="3">
-        <v>0.13749999999999998</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C102" s="3">
-        <v>0.74097222222222225</v>
+        <v>0.73993055555555554</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44298</v>
+        <v>45393</v>
       </c>
       <c r="B103" s="3">
-        <v>0.13628472222222221</v>
+        <v>0.13749999999999998</v>
       </c>
       <c r="C103" s="3">
-        <v>0.74201388888888897</v>
+        <v>0.74097222222222225</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44299</v>
+        <v>45394</v>
       </c>
       <c r="B104" s="3">
-        <v>0.13506944444444444</v>
+        <v>0.13628472222222221</v>
       </c>
       <c r="C104" s="3">
-        <v>0.74305555555555558</v>
+        <v>0.74201388888888897</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44300</v>
+        <v>45395</v>
       </c>
       <c r="B105" s="3">
-        <v>0.13385416666666666</v>
+        <v>0.13506944444444444</v>
       </c>
       <c r="C105" s="3">
-        <v>0.74409722222222219</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44301</v>
+        <v>45396</v>
       </c>
       <c r="B106" s="3">
-        <v>0.13263888888888889</v>
+        <v>0.13385416666666666</v>
       </c>
       <c r="C106" s="3">
-        <v>0.74513888888888891</v>
+        <v>0.74409722222222219</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44302</v>
+        <v>45397</v>
       </c>
       <c r="B107" s="3">
-        <v>0.13125000000000001</v>
+        <v>0.13263888888888889</v>
       </c>
       <c r="C107" s="3">
-        <v>0.74618055555555562</v>
+        <v>0.74513888888888891</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44303</v>
+        <v>45398</v>
       </c>
       <c r="B108" s="3">
-        <v>0.12986111111111109</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="C108" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.74618055555555562</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44304</v>
+        <v>45399</v>
       </c>
       <c r="B109" s="3">
-        <v>0.12847222222222221</v>
+        <v>0.12986111111111109</v>
       </c>
       <c r="C109" s="3">
-        <v>0.74826388888888884</v>
+        <v>0.74722222222222223</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44305</v>
+        <v>45400</v>
       </c>
       <c r="B110" s="3">
-        <v>0.12708333333333333</v>
+        <v>0.12847222222222221</v>
       </c>
       <c r="C110" s="3">
-        <v>0.74930555555555556</v>
+        <v>0.74826388888888884</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44306</v>
+        <v>45401</v>
       </c>
       <c r="B111" s="3">
-        <v>0.12569444444444444</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="C111" s="3">
-        <v>0.75034722222222228</v>
+        <v>0.74930555555555556</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44307</v>
+        <v>45402</v>
       </c>
       <c r="B112" s="3">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.75034722222222228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>45403</v>
+      </c>
+      <c r="B113" s="3">
         <v>0.12430555555555556</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C113" s="3">
         <v>0.75138888888888888</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>44308</v>
-      </c>
-      <c r="B113" s="3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B114" s="3">
         <v>0.12291666666666666</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C114" s="3">
         <v>0.75243055555555549</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>44309</v>
-      </c>
-      <c r="B114" s="3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B115" s="3">
         <v>0.12152777777777778</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C115" s="3">
         <v>0.75347222222222221</v>
       </c>
-      <c r="J114" s="2"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>44310</v>
-      </c>
-      <c r="B115" s="3">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B116" s="3">
         <v>0.12031249999999999</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C116" s="3">
         <v>0.75451388888888893</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>44311</v>
-      </c>
-      <c r="B116" s="3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B117" s="3">
         <v>0.11909722222222222</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C117" s="3">
         <v>0.75555555555555554</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>44312</v>
-      </c>
-      <c r="B117" s="3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B118" s="3">
         <v>0.11788194444444444</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C118" s="3">
         <v>0.75659722222222214</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>44313</v>
-      </c>
-      <c r="B118" s="3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B119" s="3">
         <v>0.11666666666666665</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C119" s="3">
         <v>0.75763888888888886</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>44314</v>
-      </c>
-      <c r="B119" s="3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B120" s="3">
         <v>0.11545138888888888</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C120" s="3">
         <v>0.75868055555555558</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>44315</v>
-      </c>
-      <c r="B120" s="3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B121" s="3">
         <v>0.11423611111111111</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C121" s="3">
         <v>0.75972222222222219</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>44316</v>
-      </c>
-      <c r="B121" s="3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B122" s="3">
         <v>0.11302083333333333</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C122" s="3">
         <v>0.76076388888888891</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>44317</v>
-      </c>
-      <c r="B122" s="3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B123" s="3">
         <v>0.11180555555555556</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C123" s="3">
         <v>0.76180555555555562</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
-        <v>44318</v>
-      </c>
-      <c r="B123" s="3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B124" s="3">
         <v>0.11059027777777777</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C124" s="3">
         <v>0.76284722222222223</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
-        <v>44319</v>
-      </c>
-      <c r="B124" s="3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B125" s="3">
         <v>0.109375</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C125" s="3">
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>44320</v>
-      </c>
-      <c r="B125" s="3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>45416</v>
+      </c>
+      <c r="B126" s="3">
         <v>0.10815972222222223</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C126" s="3">
         <v>0.76493055555555556</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>44321</v>
-      </c>
-      <c r="B126" s="3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B127" s="3">
         <v>0.10694444444444444</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C127" s="3">
         <v>0.76597222222222217</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>44322</v>
-      </c>
-      <c r="B127" s="3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B128" s="3">
         <v>0.10590277777777778</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C128" s="3">
         <v>0.76701388888888888</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
-        <v>44323</v>
-      </c>
-      <c r="B128" s="3">
-        <v>0.10486111111111111</v>
-      </c>
-      <c r="C128" s="3">
-        <v>0.76805555555555549</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44324</v>
+        <v>45419</v>
       </c>
       <c r="B129" s="3">
-        <v>0.10381944444444445</v>
+        <v>0.10486111111111111</v>
       </c>
       <c r="C129" s="3">
-        <v>0.76909722222222221</v>
+        <v>0.76805555555555549</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44325</v>
+        <v>45420</v>
       </c>
       <c r="B130" s="3">
-        <v>0.10277777777777779</v>
+        <v>0.10381944444444445</v>
       </c>
       <c r="C130" s="3">
-        <v>0.77013888888888893</v>
+        <v>0.76909722222222221</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44326</v>
+        <v>45421</v>
       </c>
       <c r="B131" s="3">
-        <v>0.10173611111111111</v>
+        <v>0.10277777777777779</v>
       </c>
       <c r="C131" s="3">
-        <v>0.77100694444444451</v>
+        <v>0.77013888888888893</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44327</v>
+        <v>45422</v>
       </c>
       <c r="B132" s="3">
-        <v>0.10069444444444445</v>
+        <v>0.10173611111111111</v>
       </c>
       <c r="C132" s="3">
-        <v>0.77187500000000009</v>
+        <v>0.77100694444444451</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44328</v>
+        <v>45423</v>
       </c>
       <c r="B133" s="3">
-        <v>9.9652777777777785E-2</v>
+        <v>0.10069444444444445</v>
       </c>
       <c r="C133" s="3">
-        <v>0.77274305555555556</v>
+        <v>0.77187500000000009</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44329</v>
+        <v>45424</v>
       </c>
       <c r="B134" s="3">
-        <v>9.8611111111111108E-2</v>
+        <v>9.9652777777777785E-2</v>
       </c>
       <c r="C134" s="3">
-        <v>0.77361111111111114</v>
+        <v>0.77274305555555556</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44330</v>
+        <v>45425</v>
       </c>
       <c r="B135" s="3">
-        <v>9.7743055555555555E-2</v>
+        <v>9.8611111111111108E-2</v>
       </c>
       <c r="C135" s="3">
-        <v>0.77465277777777786</v>
+        <v>0.77361111111111114</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44331</v>
+        <v>45426</v>
       </c>
       <c r="B136" s="3">
-        <v>9.6874999999999989E-2</v>
+        <v>9.7743055555555555E-2</v>
       </c>
       <c r="C136" s="3">
-        <v>0.77569444444444446</v>
+        <v>0.77465277777777786</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44332</v>
+        <v>45427</v>
       </c>
       <c r="B137" s="3">
-        <v>9.6006944444444436E-2</v>
+        <v>9.6874999999999989E-2</v>
       </c>
       <c r="C137" s="3">
-        <v>0.77673611111111107</v>
+        <v>0.77569444444444446</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44333</v>
+        <v>45428</v>
       </c>
       <c r="B138" s="3">
-        <v>9.5138888888888884E-2</v>
+        <v>9.6006944444444436E-2</v>
       </c>
       <c r="C138" s="3">
-        <v>0.77777777777777779</v>
+        <v>0.77673611111111107</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44334</v>
+        <v>45429</v>
       </c>
       <c r="B139" s="3">
-        <v>9.4270833333333331E-2</v>
+        <v>9.5138888888888884E-2</v>
       </c>
       <c r="C139" s="3">
-        <v>0.77864583333333337</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44335</v>
+        <v>45430</v>
       </c>
       <c r="B140" s="3">
-        <v>9.3402777777777779E-2</v>
+        <v>9.4270833333333331E-2</v>
       </c>
       <c r="C140" s="3">
-        <v>0.77951388888888884</v>
+        <v>0.77864583333333337</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44336</v>
+        <v>45431</v>
       </c>
       <c r="B141" s="3">
-        <v>9.2534722222222227E-2</v>
+        <v>9.3402777777777779E-2</v>
       </c>
       <c r="C141" s="3">
-        <v>0.78038194444444442</v>
+        <v>0.77951388888888884</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44337</v>
+        <v>45432</v>
       </c>
       <c r="B142" s="3">
-        <v>9.1666666666666674E-2</v>
+        <v>9.2534722222222227E-2</v>
       </c>
       <c r="C142" s="3">
-        <v>0.78125</v>
+        <v>0.78038194444444442</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44338</v>
+        <v>45433</v>
       </c>
       <c r="B143" s="3">
-        <v>9.0798611111111122E-2</v>
+        <v>9.1666666666666674E-2</v>
       </c>
       <c r="C143" s="3">
-        <v>0.78211805555555558</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44339</v>
+        <v>45434</v>
       </c>
       <c r="B144" s="3">
-        <v>8.9930555555555569E-2</v>
+        <v>9.0798611111111122E-2</v>
       </c>
       <c r="C144" s="3">
-        <v>0.78298611111111116</v>
+        <v>0.78211805555555558</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44340</v>
+        <v>45435</v>
       </c>
       <c r="B145" s="3">
-        <v>8.9062500000000003E-2</v>
+        <v>8.9930555555555569E-2</v>
       </c>
       <c r="C145" s="3">
-        <v>0.78385416666666663</v>
+        <v>0.78298611111111116</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44341</v>
+        <v>45436</v>
       </c>
       <c r="B146" s="3">
-        <v>8.819444444444445E-2</v>
+        <v>8.9062500000000003E-2</v>
       </c>
       <c r="C146" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.78385416666666663</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44342</v>
+        <v>45437</v>
       </c>
       <c r="B147" s="3">
-        <v>8.7673611111111119E-2</v>
+        <v>8.819444444444445E-2</v>
       </c>
       <c r="C147" s="3">
-        <v>0.78559027777777779</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44343</v>
+        <v>45438</v>
       </c>
       <c r="B148" s="3">
-        <v>8.7152777777777787E-2</v>
+        <v>8.7673611111111119E-2</v>
       </c>
       <c r="C148" s="3">
-        <v>0.78645833333333337</v>
+        <v>0.78559027777777779</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44344</v>
+        <v>45439</v>
       </c>
       <c r="B149" s="3">
-        <v>8.6631944444444456E-2</v>
+        <v>8.7152777777777787E-2</v>
       </c>
       <c r="C149" s="3">
-        <v>0.78732638888888895</v>
+        <v>0.78645833333333337</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44345</v>
+        <v>45440</v>
       </c>
       <c r="B150" s="3">
-        <v>8.6111111111111124E-2</v>
+        <v>8.6631944444444456E-2</v>
       </c>
       <c r="C150" s="3">
-        <v>0.78819444444444453</v>
+        <v>0.78732638888888895</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44346</v>
+        <v>45441</v>
       </c>
       <c r="B151" s="3">
-        <v>8.5590277777777779E-2</v>
+        <v>8.6111111111111124E-2</v>
       </c>
       <c r="C151" s="3">
-        <v>0.78888888888888897</v>
+        <v>0.78819444444444453</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44347</v>
+        <v>45442</v>
       </c>
       <c r="B152" s="3">
-        <v>8.5069444444444448E-2</v>
+        <v>8.5590277777777779E-2</v>
       </c>
       <c r="C152" s="3">
-        <v>0.78958333333333341</v>
+        <v>0.78888888888888897</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44348</v>
+        <v>45443</v>
       </c>
       <c r="B153" s="3">
-        <v>8.4548611111111116E-2</v>
+        <v>8.5069444444444448E-2</v>
       </c>
       <c r="C153" s="3">
-        <v>0.79027777777777786</v>
+        <v>0.78958333333333341</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44349</v>
+        <v>45444</v>
       </c>
       <c r="B154" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>8.4548611111111116E-2</v>
       </c>
       <c r="C154" s="3">
-        <v>0.7909722222222223</v>
+        <v>0.79027777777777786</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44350</v>
+        <v>45445</v>
       </c>
       <c r="B155" s="3">
-        <v>8.368055555555555E-2</v>
+        <v>8.4027777777777771E-2</v>
       </c>
       <c r="C155" s="3">
-        <v>0.79166666666666674</v>
+        <v>0.7909722222222223</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44351</v>
+        <v>45446</v>
       </c>
       <c r="B156" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>8.368055555555555E-2</v>
       </c>
       <c r="C156" s="3">
-        <v>0.79236111111111118</v>
+        <v>0.79166666666666674</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44352</v>
+        <v>45447</v>
       </c>
       <c r="B157" s="3">
-        <v>8.2986111111111108E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C157" s="3">
-        <v>0.79305555555555562</v>
+        <v>0.79236111111111118</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44353</v>
+        <v>45448</v>
       </c>
       <c r="B158" s="3">
-        <v>8.2638888888888887E-2</v>
+        <v>8.2986111111111108E-2</v>
       </c>
       <c r="C158" s="3">
-        <v>0.79375000000000007</v>
+        <v>0.79305555555555562</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44354</v>
+        <v>45449</v>
       </c>
       <c r="B159" s="3">
-        <v>8.2291666666666666E-2</v>
+        <v>8.2638888888888887E-2</v>
       </c>
       <c r="C159" s="3">
-        <v>0.79427083333333337</v>
+        <v>0.79375000000000007</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>44355</v>
+        <v>45450</v>
       </c>
       <c r="B160" s="3">
-        <v>8.1944444444444445E-2</v>
+        <v>8.2291666666666666E-2</v>
       </c>
       <c r="C160" s="3">
-        <v>0.79479166666666679</v>
+        <v>0.79427083333333337</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>44356</v>
+        <v>45451</v>
       </c>
       <c r="B161" s="3">
-        <v>8.1597222222222224E-2</v>
+        <v>8.1944444444444445E-2</v>
       </c>
       <c r="C161" s="3">
-        <v>0.79531250000000009</v>
+        <v>0.79479166666666679</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>44357</v>
+        <v>45452</v>
       </c>
       <c r="B162" s="3">
-        <v>8.1250000000000003E-2</v>
+        <v>8.1597222222222224E-2</v>
       </c>
       <c r="C162" s="3">
-        <v>0.79583333333333339</v>
+        <v>0.79531250000000009</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>44358</v>
+        <v>45453</v>
       </c>
       <c r="B163" s="3">
-        <v>8.1076388888888892E-2</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="C163" s="3">
-        <v>0.79618055555555556</v>
+        <v>0.79583333333333339</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>44359</v>
+        <v>45454</v>
       </c>
       <c r="B164" s="3">
-        <v>8.0902777777777782E-2</v>
+        <v>8.1076388888888892E-2</v>
       </c>
       <c r="C164" s="3">
-        <v>0.79652777777777772</v>
+        <v>0.79618055555555556</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>44360</v>
+        <v>45455</v>
       </c>
       <c r="B165" s="3">
-        <v>8.0729166666666671E-2</v>
+        <v>8.0902777777777782E-2</v>
       </c>
       <c r="C165" s="3">
-        <v>0.796875</v>
+        <v>0.79652777777777772</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>44361</v>
+        <v>45456</v>
       </c>
       <c r="B166" s="3">
-        <v>8.0555555555555561E-2</v>
+        <v>8.0729166666666671E-2</v>
       </c>
       <c r="C166" s="3">
-        <v>0.79722222222222217</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>44362</v>
+        <v>45457</v>
       </c>
       <c r="B167" s="3">
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C167" s="3">
-        <v>0.79756944444444444</v>
+        <v>0.79722222222222217</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>44363</v>
+        <v>45458</v>
       </c>
       <c r="B168" s="3">
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C168" s="3">
-        <v>0.79791666666666661</v>
+        <v>0.79756944444444444</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>44364</v>
+        <v>45459</v>
       </c>
       <c r="B169" s="3">
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C169" s="3">
-        <v>0.79826388888888888</v>
+        <v>0.79791666666666661</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>44365</v>
+        <v>45460</v>
       </c>
       <c r="B170" s="3">
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C170" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.79826388888888888</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>44366</v>
+        <v>45461</v>
       </c>
       <c r="B171" s="3">
-        <v>8.0729166666666671E-2</v>
+        <v>8.0555555555555561E-2</v>
       </c>
       <c r="C171" s="3">
-        <v>0.7987847222222223</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>44367</v>
+        <v>45462</v>
       </c>
       <c r="B172" s="3">
-        <v>8.0902777777777782E-2</v>
+        <v>8.0729166666666671E-2</v>
       </c>
       <c r="C172" s="3">
-        <v>0.79895833333333344</v>
+        <v>0.7987847222222223</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>44368</v>
+        <v>45463</v>
       </c>
       <c r="B173" s="3">
-        <v>8.1076388888888892E-2</v>
+        <v>8.0902777777777782E-2</v>
       </c>
       <c r="C173" s="3">
-        <v>0.79913194444444446</v>
+        <v>0.79895833333333344</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>44369</v>
+        <v>45464</v>
       </c>
       <c r="B174" s="3">
-        <v>8.1250000000000003E-2</v>
+        <v>8.1076388888888892E-2</v>
       </c>
       <c r="C174" s="3">
-        <v>0.7993055555555556</v>
+        <v>0.79913194444444446</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>44370</v>
+        <v>45465</v>
       </c>
       <c r="B175" s="3">
-        <v>8.1597222222222224E-2</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="C175" s="3">
         <v>0.7993055555555556</v>
@@ -2334,10 +7112,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>44371</v>
+        <v>45466</v>
       </c>
       <c r="B176" s="3">
-        <v>8.1944444444444445E-2</v>
+        <v>8.1597222222222224E-2</v>
       </c>
       <c r="C176" s="3">
         <v>0.7993055555555556</v>
@@ -2345,10 +7123,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>44372</v>
+        <v>45467</v>
       </c>
       <c r="B177" s="3">
-        <v>8.2291666666666666E-2</v>
+        <v>8.1944444444444445E-2</v>
       </c>
       <c r="C177" s="3">
         <v>0.7993055555555556</v>
@@ -2356,10 +7134,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>44373</v>
+        <v>45468</v>
       </c>
       <c r="B178" s="3">
-        <v>8.2638888888888887E-2</v>
+        <v>8.2291666666666666E-2</v>
       </c>
       <c r="C178" s="3">
         <v>0.7993055555555556</v>
@@ -2367,54 +7145,54 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>44374</v>
+        <v>45469</v>
       </c>
       <c r="B179" s="3">
-        <v>8.2986111111111108E-2</v>
+        <v>8.2638888888888887E-2</v>
       </c>
       <c r="C179" s="3">
-        <v>0.79913194444444446</v>
+        <v>0.7993055555555556</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>44375</v>
+        <v>45470</v>
       </c>
       <c r="B180" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>8.2986111111111108E-2</v>
       </c>
       <c r="C180" s="3">
-        <v>0.79895833333333344</v>
+        <v>0.79913194444444446</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>44376</v>
+        <v>45471</v>
       </c>
       <c r="B181" s="3">
-        <v>8.368055555555555E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C181" s="3">
-        <v>0.7987847222222223</v>
+        <v>0.79895833333333344</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>44377</v>
+        <v>45472</v>
       </c>
       <c r="B182" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>8.368055555555555E-2</v>
       </c>
       <c r="C182" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.7987847222222223</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>44378</v>
+        <v>45473</v>
       </c>
       <c r="B183" s="3">
-        <v>8.4722222222222213E-2</v>
+        <v>8.4027777777777771E-2</v>
       </c>
       <c r="C183" s="3">
         <v>0.79861111111111116</v>
@@ -2422,1726 +7200,1726 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>44379</v>
+        <v>45474</v>
       </c>
       <c r="B184" s="3">
-        <v>8.5243055555555558E-2</v>
+        <v>8.4722222222222213E-2</v>
       </c>
       <c r="C184" s="3">
-        <v>0.79826388888888888</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>44380</v>
+        <v>45475</v>
       </c>
       <c r="B185" s="3">
-        <v>8.576388888888889E-2</v>
+        <v>8.5243055555555558E-2</v>
       </c>
       <c r="C185" s="3">
-        <v>0.79791666666666661</v>
+        <v>0.79826388888888888</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>44381</v>
+        <v>45476</v>
       </c>
       <c r="B186" s="3">
-        <v>8.6284722222222221E-2</v>
+        <v>8.576388888888889E-2</v>
       </c>
       <c r="C186" s="3">
-        <v>0.79756944444444444</v>
+        <v>0.79791666666666661</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>44382</v>
+        <v>45477</v>
       </c>
       <c r="B187" s="3">
-        <v>8.6805555555555566E-2</v>
+        <v>8.6284722222222221E-2</v>
       </c>
       <c r="C187" s="3">
-        <v>0.79722222222222217</v>
+        <v>0.79756944444444444</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>44383</v>
+        <v>45478</v>
       </c>
       <c r="B188" s="3">
-        <v>8.7500000000000008E-2</v>
+        <v>8.6805555555555566E-2</v>
       </c>
       <c r="C188" s="3">
-        <v>0.796875</v>
+        <v>0.79722222222222217</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>44384</v>
+        <v>45479</v>
       </c>
       <c r="B189" s="3">
-        <v>8.819444444444445E-2</v>
+        <v>8.7500000000000008E-2</v>
       </c>
       <c r="C189" s="3">
-        <v>0.79652777777777772</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>44385</v>
+        <v>45480</v>
       </c>
       <c r="B190" s="3">
-        <v>8.8888888888888892E-2</v>
+        <v>8.819444444444445E-2</v>
       </c>
       <c r="C190" s="3">
-        <v>0.79618055555555556</v>
+        <v>0.79652777777777772</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>44386</v>
+        <v>45481</v>
       </c>
       <c r="B191" s="3">
-        <v>8.9583333333333334E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="C191" s="3">
-        <v>0.79583333333333339</v>
+        <v>0.79618055555555556</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>44387</v>
+        <v>45482</v>
       </c>
       <c r="B192" s="3">
-        <v>9.0277777777777776E-2</v>
+        <v>8.9583333333333334E-2</v>
       </c>
       <c r="C192" s="3">
-        <v>0.79531250000000009</v>
+        <v>0.79583333333333339</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>44388</v>
+        <v>45483</v>
       </c>
       <c r="B193" s="3">
-        <v>9.0972222222222232E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="C193" s="3">
-        <v>0.79479166666666679</v>
+        <v>0.79531250000000009</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>44389</v>
+        <v>45484</v>
       </c>
       <c r="B194" s="3">
-        <v>9.1666666666666674E-2</v>
+        <v>9.0972222222222232E-2</v>
       </c>
       <c r="C194" s="3">
-        <v>0.79427083333333337</v>
+        <v>0.79479166666666679</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>44390</v>
+        <v>45485</v>
       </c>
       <c r="B195" s="3">
-        <v>9.2361111111111116E-2</v>
+        <v>9.1666666666666674E-2</v>
       </c>
       <c r="C195" s="3">
-        <v>0.79375000000000007</v>
+        <v>0.79427083333333337</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>44391</v>
+        <v>45486</v>
       </c>
       <c r="B196" s="3">
-        <v>9.3055555555555558E-2</v>
+        <v>9.2361111111111116E-2</v>
       </c>
       <c r="C196" s="3">
-        <v>0.79305555555555562</v>
+        <v>0.79375000000000007</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>44392</v>
+        <v>45487</v>
       </c>
       <c r="B197" s="3">
-        <v>9.375E-2</v>
+        <v>9.3055555555555558E-2</v>
       </c>
       <c r="C197" s="3">
-        <v>0.79236111111111118</v>
+        <v>0.79305555555555562</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>44393</v>
+        <v>45488</v>
       </c>
       <c r="B198" s="3">
-        <v>9.4444444444444442E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C198" s="3">
-        <v>0.79166666666666674</v>
+        <v>0.79236111111111118</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>44394</v>
+        <v>45489</v>
       </c>
       <c r="B199" s="3">
-        <v>9.5138888888888884E-2</v>
+        <v>9.4444444444444442E-2</v>
       </c>
       <c r="C199" s="3">
-        <v>0.7909722222222223</v>
+        <v>0.79166666666666674</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>44395</v>
+        <v>45490</v>
       </c>
       <c r="B200" s="3">
-        <v>9.6006944444444436E-2</v>
+        <v>9.5138888888888884E-2</v>
       </c>
       <c r="C200" s="3">
-        <v>0.79010416666666672</v>
+        <v>0.7909722222222223</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>44396</v>
+        <v>45491</v>
       </c>
       <c r="B201" s="3">
-        <v>9.6874999999999989E-2</v>
+        <v>9.6006944444444436E-2</v>
       </c>
       <c r="C201" s="3">
-        <v>0.78923611111111114</v>
+        <v>0.79010416666666672</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>44397</v>
+        <v>45492</v>
       </c>
       <c r="B202" s="3">
-        <v>9.7743055555555555E-2</v>
+        <v>9.6874999999999989E-2</v>
       </c>
       <c r="C202" s="3">
-        <v>0.78836805555555556</v>
+        <v>0.78923611111111114</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>44398</v>
+        <v>45493</v>
       </c>
       <c r="B203" s="3">
-        <v>9.8611111111111108E-2</v>
+        <v>9.7743055555555555E-2</v>
       </c>
       <c r="C203" s="3">
-        <v>0.78749999999999998</v>
+        <v>0.78836805555555556</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>44399</v>
+        <v>45494</v>
       </c>
       <c r="B204" s="3">
-        <v>9.9652777777777785E-2</v>
+        <v>9.8611111111111108E-2</v>
       </c>
       <c r="C204" s="3">
-        <v>0.7866319444444444</v>
+        <v>0.78749999999999998</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>44400</v>
+        <v>45495</v>
       </c>
       <c r="B205" s="3">
-        <v>0.10069444444444445</v>
+        <v>9.9652777777777785E-2</v>
       </c>
       <c r="C205" s="3">
-        <v>0.78576388888888893</v>
+        <v>0.7866319444444444</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>44401</v>
+        <v>45496</v>
       </c>
       <c r="B206" s="3">
-        <v>0.10173611111111111</v>
+        <v>0.10069444444444445</v>
       </c>
       <c r="C206" s="3">
-        <v>0.78489583333333335</v>
+        <v>0.78576388888888893</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>44402</v>
+        <v>45497</v>
       </c>
       <c r="B207" s="3">
-        <v>0.10277777777777779</v>
+        <v>0.10173611111111111</v>
       </c>
       <c r="C207" s="3">
-        <v>0.78402777777777777</v>
+        <v>0.78489583333333335</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>44403</v>
+        <v>45498</v>
       </c>
       <c r="B208" s="3">
-        <v>0.10364583333333334</v>
+        <v>0.10277777777777779</v>
       </c>
       <c r="C208" s="3">
-        <v>0.78315972222222219</v>
+        <v>0.78402777777777777</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>44404</v>
+        <v>45499</v>
       </c>
       <c r="B209" s="3">
-        <v>0.10451388888888889</v>
+        <v>0.10364583333333334</v>
       </c>
       <c r="C209" s="3">
-        <v>0.78229166666666661</v>
+        <v>0.78315972222222219</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>44405</v>
+        <v>45500</v>
       </c>
       <c r="B210" s="3">
-        <v>0.10538194444444444</v>
+        <v>0.10451388888888889</v>
       </c>
       <c r="C210" s="3">
-        <v>0.78142361111111114</v>
+        <v>0.78229166666666661</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>44406</v>
+        <v>45501</v>
       </c>
       <c r="B211" s="3">
-        <v>0.10625</v>
+        <v>0.10538194444444444</v>
       </c>
       <c r="C211" s="3">
-        <v>0.78055555555555556</v>
+        <v>0.78142361111111114</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>44407</v>
+        <v>45502</v>
       </c>
       <c r="B212" s="3">
-        <v>0.10729166666666666</v>
+        <v>0.10625</v>
       </c>
       <c r="C212" s="3">
-        <v>0.77951388888888884</v>
+        <v>0.78055555555555556</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>44408</v>
+        <v>45503</v>
       </c>
       <c r="B213" s="3">
-        <v>0.10833333333333334</v>
+        <v>0.10729166666666666</v>
       </c>
       <c r="C213" s="3">
-        <v>0.77847222222222223</v>
+        <v>0.77951388888888884</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>44409</v>
+        <v>45504</v>
       </c>
       <c r="B214" s="3">
-        <v>0.109375</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="C214" s="3">
-        <v>0.77743055555555562</v>
+        <v>0.77847222222222223</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>44410</v>
+        <v>45505</v>
       </c>
       <c r="B215" s="3">
-        <v>0.11041666666666666</v>
+        <v>0.109375</v>
       </c>
       <c r="C215" s="3">
-        <v>0.77638888888888891</v>
+        <v>0.77743055555555562</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>44411</v>
+        <v>45506</v>
       </c>
       <c r="B216" s="3">
-        <v>0.11128472222222222</v>
+        <v>0.11041666666666666</v>
       </c>
       <c r="C216" s="3">
-        <v>0.77517361111111116</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>44412</v>
+        <v>45507</v>
       </c>
       <c r="B217" s="3">
-        <v>0.11215277777777777</v>
+        <v>0.11128472222222222</v>
       </c>
       <c r="C217" s="3">
-        <v>0.7739583333333333</v>
+        <v>0.77517361111111116</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>44413</v>
+        <v>45508</v>
       </c>
       <c r="B218" s="3">
-        <v>0.11302083333333333</v>
+        <v>0.11215277777777777</v>
       </c>
       <c r="C218" s="3">
-        <v>0.77274305555555545</v>
+        <v>0.7739583333333333</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>44414</v>
+        <v>45509</v>
       </c>
       <c r="B219" s="3">
-        <v>0.11388888888888889</v>
+        <v>0.11302083333333333</v>
       </c>
       <c r="C219" s="3">
-        <v>0.7715277777777777</v>
+        <v>0.77274305555555545</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>44415</v>
+        <v>45510</v>
       </c>
       <c r="B220" s="3">
-        <v>0.11493055555555556</v>
+        <v>0.11388888888888889</v>
       </c>
       <c r="C220" s="3">
-        <v>0.77031249999999996</v>
+        <v>0.7715277777777777</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>44416</v>
+        <v>45511</v>
       </c>
       <c r="B221" s="3">
-        <v>0.11597222222222223</v>
+        <v>0.11493055555555556</v>
       </c>
       <c r="C221" s="3">
-        <v>0.7690972222222221</v>
+        <v>0.77031249999999996</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>44417</v>
+        <v>45512</v>
       </c>
       <c r="B222" s="3">
-        <v>0.11701388888888889</v>
+        <v>0.11597222222222223</v>
       </c>
       <c r="C222" s="3">
-        <v>0.76788194444444435</v>
+        <v>0.7690972222222221</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>44418</v>
+        <v>45513</v>
       </c>
       <c r="B223" s="3">
-        <v>0.11805555555555557</v>
+        <v>0.11701388888888889</v>
       </c>
       <c r="C223" s="3">
-        <v>0.76666666666666661</v>
+        <v>0.76788194444444435</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>44419</v>
+        <v>45514</v>
       </c>
       <c r="B224" s="3">
-        <v>0.11909722222222223</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="C224" s="3">
-        <v>0.76545138888888886</v>
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>44420</v>
+        <v>45515</v>
       </c>
       <c r="B225" s="3">
-        <v>0.12013888888888891</v>
+        <v>0.11909722222222223</v>
       </c>
       <c r="C225" s="3">
-        <v>0.76423611111111112</v>
+        <v>0.76545138888888886</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>44421</v>
+        <v>45516</v>
       </c>
       <c r="B226" s="3">
-        <v>0.12118055555555557</v>
+        <v>0.12013888888888891</v>
       </c>
       <c r="C226" s="3">
-        <v>0.76302083333333337</v>
+        <v>0.76423611111111112</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>44422</v>
+        <v>45517</v>
       </c>
       <c r="B227" s="3">
-        <v>0.12222222222222223</v>
+        <v>0.12118055555555557</v>
       </c>
       <c r="C227" s="3">
-        <v>0.76180555555555562</v>
+        <v>0.76302083333333337</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>44423</v>
+        <v>45518</v>
       </c>
       <c r="B228" s="3">
-        <v>0.12309027777777778</v>
+        <v>0.12222222222222223</v>
       </c>
       <c r="C228" s="3">
-        <v>0.76059027777777788</v>
+        <v>0.76180555555555562</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>44424</v>
+        <v>45519</v>
       </c>
       <c r="B229" s="3">
-        <v>0.12395833333333334</v>
+        <v>0.12309027777777778</v>
       </c>
       <c r="C229" s="3">
-        <v>0.75937500000000013</v>
+        <v>0.76059027777777788</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>44425</v>
+        <v>45520</v>
       </c>
       <c r="B230" s="3">
-        <v>0.12482638888888889</v>
+        <v>0.12395833333333334</v>
       </c>
       <c r="C230" s="3">
-        <v>0.75815972222222228</v>
+        <v>0.75937500000000013</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>44426</v>
+        <v>45521</v>
       </c>
       <c r="B231" s="3">
-        <v>0.12569444444444444</v>
+        <v>0.12482638888888889</v>
       </c>
       <c r="C231" s="3">
-        <v>0.75694444444444453</v>
+        <v>0.75815972222222228</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>44427</v>
+        <v>45522</v>
       </c>
       <c r="B232" s="3">
-        <v>0.1267361111111111</v>
+        <v>0.12569444444444444</v>
       </c>
       <c r="C232" s="3">
-        <v>0.75555555555555565</v>
+        <v>0.75694444444444453</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>44428</v>
+        <v>45523</v>
       </c>
       <c r="B233" s="3">
-        <v>0.12777777777777777</v>
+        <v>0.1267361111111111</v>
       </c>
       <c r="C233" s="3">
-        <v>0.75416666666666676</v>
+        <v>0.75555555555555565</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>44429</v>
+        <v>45524</v>
       </c>
       <c r="B234" s="3">
-        <v>0.12881944444444446</v>
+        <v>0.12777777777777777</v>
       </c>
       <c r="C234" s="3">
-        <v>0.75277777777777788</v>
+        <v>0.75416666666666676</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>44430</v>
+        <v>45525</v>
       </c>
       <c r="B235" s="3">
-        <v>0.12986111111111112</v>
+        <v>0.12881944444444446</v>
       </c>
       <c r="C235" s="3">
-        <v>0.75138888888888899</v>
+        <v>0.75277777777777788</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>44431</v>
+        <v>45526</v>
       </c>
       <c r="B236" s="3">
-        <v>0.13090277777777778</v>
+        <v>0.12986111111111112</v>
       </c>
       <c r="C236" s="3">
-        <v>0.75</v>
+        <v>0.75138888888888899</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>44432</v>
+        <v>45527</v>
       </c>
       <c r="B237" s="3">
-        <v>0.13194444444444445</v>
+        <v>0.13090277777777778</v>
       </c>
       <c r="C237" s="3">
-        <v>0.74861111111111112</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>44433</v>
+        <v>45528</v>
       </c>
       <c r="B238" s="3">
-        <v>0.13298611111111111</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C238" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.74861111111111112</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>44434</v>
+        <v>45529</v>
       </c>
       <c r="B239" s="3">
-        <v>0.13402777777777777</v>
+        <v>0.13298611111111111</v>
       </c>
       <c r="C239" s="3">
-        <v>0.74583333333333324</v>
+        <v>0.74722222222222223</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>44435</v>
+        <v>45530</v>
       </c>
       <c r="B240" s="3">
-        <v>0.13489583333333333</v>
+        <v>0.13402777777777777</v>
       </c>
       <c r="C240" s="3">
-        <v>0.74444444444444435</v>
+        <v>0.74583333333333324</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>44436</v>
+        <v>45531</v>
       </c>
       <c r="B241" s="3">
-        <v>0.13576388888888888</v>
+        <v>0.13489583333333333</v>
       </c>
       <c r="C241" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74444444444444435</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>44437</v>
+        <v>45532</v>
       </c>
       <c r="B242" s="3">
-        <v>0.13663194444444443</v>
+        <v>0.13576388888888888</v>
       </c>
       <c r="C242" s="3">
-        <v>0.74166666666666659</v>
+        <v>0.74305555555555547</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>44438</v>
+        <v>45533</v>
       </c>
       <c r="B243" s="3">
-        <v>0.13749999999999998</v>
+        <v>0.13663194444444443</v>
       </c>
       <c r="C243" s="3">
-        <v>0.7402777777777777</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>44439</v>
+        <v>45534</v>
       </c>
       <c r="B244" s="3">
-        <v>0.13854166666666665</v>
+        <v>0.13749999999999998</v>
       </c>
       <c r="C244" s="3">
-        <v>0.73888888888888882</v>
+        <v>0.7402777777777777</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>44440</v>
+        <v>45535</v>
       </c>
       <c r="B245" s="3">
-        <v>0.13958333333333334</v>
+        <v>0.13854166666666665</v>
       </c>
       <c r="C245" s="3">
-        <v>0.73749999999999993</v>
+        <v>0.73888888888888882</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>44441</v>
+        <v>45536</v>
       </c>
       <c r="B246" s="3">
-        <v>0.140625</v>
+        <v>0.13958333333333334</v>
       </c>
       <c r="C246" s="3">
-        <v>0.73611111111111105</v>
+        <v>0.73749999999999993</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>44442</v>
+        <v>45537</v>
       </c>
       <c r="B247" s="3">
-        <v>0.14166666666666666</v>
+        <v>0.140625</v>
       </c>
       <c r="C247" s="3">
-        <v>0.73472222222222217</v>
+        <v>0.73611111111111105</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>44443</v>
+        <v>45538</v>
       </c>
       <c r="B248" s="3">
-        <v>0.14253472222222222</v>
+        <v>0.14166666666666666</v>
       </c>
       <c r="C248" s="3">
-        <v>0.73333333333333328</v>
+        <v>0.73472222222222217</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>44444</v>
+        <v>45539</v>
       </c>
       <c r="B249" s="3">
-        <v>0.14340277777777777</v>
+        <v>0.14253472222222222</v>
       </c>
       <c r="C249" s="3">
-        <v>0.7319444444444444</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>44445</v>
+        <v>45540</v>
       </c>
       <c r="B250" s="3">
-        <v>0.14427083333333335</v>
+        <v>0.14340277777777777</v>
       </c>
       <c r="C250" s="3">
-        <v>0.73055555555555551</v>
+        <v>0.7319444444444444</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>44446</v>
+        <v>45541</v>
       </c>
       <c r="B251" s="3">
-        <v>0.1451388888888889</v>
+        <v>0.14427083333333335</v>
       </c>
       <c r="C251" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.73055555555555551</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>44447</v>
+        <v>45542</v>
       </c>
       <c r="B252" s="3">
-        <v>0.14618055555555556</v>
+        <v>0.1451388888888889</v>
       </c>
       <c r="C252" s="3">
-        <v>0.72777777777777775</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>44448</v>
+        <v>45543</v>
       </c>
       <c r="B253" s="3">
-        <v>0.14722222222222223</v>
+        <v>0.14618055555555556</v>
       </c>
       <c r="C253" s="3">
-        <v>0.72638888888888886</v>
+        <v>0.72777777777777775</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>44449</v>
+        <v>45544</v>
       </c>
       <c r="B254" s="3">
-        <v>0.14826388888888889</v>
+        <v>0.14722222222222223</v>
       </c>
       <c r="C254" s="3">
-        <v>0.72499999999999998</v>
+        <v>0.72638888888888886</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>44450</v>
+        <v>45545</v>
       </c>
       <c r="B255" s="3">
-        <v>0.14930555555555555</v>
+        <v>0.14826388888888889</v>
       </c>
       <c r="C255" s="3">
-        <v>0.72361111111111109</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>44451</v>
+        <v>45546</v>
       </c>
       <c r="B256" s="3">
-        <v>0.1501736111111111</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C256" s="3">
-        <v>0.72204861111111107</v>
+        <v>0.72361111111111109</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
-        <v>44452</v>
+        <v>45547</v>
       </c>
       <c r="B257" s="3">
-        <v>0.15104166666666666</v>
+        <v>0.1501736111111111</v>
       </c>
       <c r="C257" s="3">
-        <v>0.72048611111111105</v>
+        <v>0.72204861111111107</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>44453</v>
+        <v>45548</v>
       </c>
       <c r="B258" s="3">
-        <v>0.15190972222222221</v>
+        <v>0.15104166666666666</v>
       </c>
       <c r="C258" s="3">
-        <v>0.71892361111111103</v>
+        <v>0.72048611111111105</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
-        <v>44454</v>
+        <v>45549</v>
       </c>
       <c r="B259" s="3">
-        <v>0.15277777777777776</v>
+        <v>0.15190972222222221</v>
       </c>
       <c r="C259" s="3">
-        <v>0.71736111111111101</v>
+        <v>0.71892361111111103</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>44455</v>
+        <v>45550</v>
       </c>
       <c r="B260" s="3">
-        <v>0.15381944444444443</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C260" s="3">
-        <v>0.71597222222222212</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>44456</v>
+        <v>45551</v>
       </c>
       <c r="B261" s="3">
-        <v>0.15486111111111112</v>
+        <v>0.15381944444444443</v>
       </c>
       <c r="C261" s="3">
-        <v>0.71458333333333324</v>
+        <v>0.71597222222222212</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
-        <v>44457</v>
+        <v>45552</v>
       </c>
       <c r="B262" s="3">
-        <v>0.15590277777777778</v>
+        <v>0.15486111111111112</v>
       </c>
       <c r="C262" s="3">
-        <v>0.71319444444444435</v>
+        <v>0.71458333333333324</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
-        <v>44458</v>
+        <v>45553</v>
       </c>
       <c r="B263" s="3">
-        <v>0.15694444444444444</v>
+        <v>0.15590277777777778</v>
       </c>
       <c r="C263" s="3">
-        <v>0.71180555555555547</v>
+        <v>0.71319444444444435</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>44459</v>
+        <v>45554</v>
       </c>
       <c r="B264" s="3">
-        <v>0.15781249999999999</v>
+        <v>0.15694444444444444</v>
       </c>
       <c r="C264" s="3">
-        <v>0.71041666666666659</v>
+        <v>0.71180555555555547</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
-        <v>44460</v>
+        <v>45555</v>
       </c>
       <c r="B265" s="3">
-        <v>0.15868055555555555</v>
+        <v>0.15781249999999999</v>
       </c>
       <c r="C265" s="3">
-        <v>0.7090277777777777</v>
+        <v>0.71041666666666659</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>44461</v>
+        <v>45556</v>
       </c>
       <c r="B266" s="3">
-        <v>0.15954861111111113</v>
+        <v>0.15868055555555555</v>
       </c>
       <c r="C266" s="3">
-        <v>0.70763888888888882</v>
+        <v>0.7090277777777777</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
-        <v>44462</v>
+        <v>45557</v>
       </c>
       <c r="B267" s="3">
-        <v>0.16041666666666668</v>
+        <v>0.15954861111111113</v>
       </c>
       <c r="C267" s="3">
-        <v>0.70624999999999993</v>
+        <v>0.70763888888888882</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
-        <v>44463</v>
+        <v>45558</v>
       </c>
       <c r="B268" s="3">
-        <v>0.16128472222222223</v>
+        <v>0.16041666666666668</v>
       </c>
       <c r="C268" s="3">
-        <v>0.70486111111111105</v>
+        <v>0.70624999999999993</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
-        <v>44464</v>
+        <v>45559</v>
       </c>
       <c r="B269" s="3">
-        <v>0.16215277777777778</v>
+        <v>0.16128472222222223</v>
       </c>
       <c r="C269" s="3">
-        <v>0.70347222222222217</v>
+        <v>0.70486111111111105</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
-        <v>44465</v>
+        <v>45560</v>
       </c>
       <c r="B270" s="3">
-        <v>0.16302083333333334</v>
+        <v>0.16215277777777778</v>
       </c>
       <c r="C270" s="3">
-        <v>0.70208333333333328</v>
+        <v>0.70347222222222217</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
-        <v>44466</v>
+        <v>45561</v>
       </c>
       <c r="B271" s="3">
-        <v>0.16388888888888889</v>
+        <v>0.16302083333333334</v>
       </c>
       <c r="C271" s="3">
-        <v>0.7006944444444444</v>
+        <v>0.70208333333333328</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
-        <v>44467</v>
+        <v>45562</v>
       </c>
       <c r="B272" s="3">
-        <v>0.16493055555555555</v>
+        <v>0.16388888888888889</v>
       </c>
       <c r="C272" s="3">
-        <v>0.69930555555555551</v>
+        <v>0.7006944444444444</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
-        <v>44468</v>
+        <v>45563</v>
       </c>
       <c r="B273" s="3">
-        <v>0.16597222222222222</v>
+        <v>0.16493055555555555</v>
       </c>
       <c r="C273" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.69930555555555551</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
-        <v>44469</v>
+        <v>45564</v>
       </c>
       <c r="B274" s="3">
-        <v>0.16701388888888888</v>
+        <v>0.16597222222222222</v>
       </c>
       <c r="C274" s="3">
-        <v>0.69652777777777775</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
-        <v>44470</v>
+        <v>45565</v>
       </c>
       <c r="B275" s="3">
-        <v>0.16805555555555554</v>
+        <v>0.16701388888888888</v>
       </c>
       <c r="C275" s="3">
-        <v>0.69513888888888886</v>
+        <v>0.69652777777777775</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
-        <v>44471</v>
+        <v>45566</v>
       </c>
       <c r="B276" s="3">
-        <v>0.16892361111111109</v>
+        <v>0.16805555555555554</v>
       </c>
       <c r="C276" s="3">
-        <v>0.69374999999999998</v>
+        <v>0.69513888888888886</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
-        <v>44472</v>
+        <v>45567</v>
       </c>
       <c r="B277" s="3">
-        <v>0.16979166666666665</v>
+        <v>0.16892361111111109</v>
       </c>
       <c r="C277" s="3">
-        <v>0.69236111111111109</v>
+        <v>0.69374999999999998</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
-        <v>44473</v>
+        <v>45568</v>
       </c>
       <c r="B278" s="3">
-        <v>0.1706597222222222</v>
+        <v>0.16979166666666665</v>
       </c>
       <c r="C278" s="3">
-        <v>0.69097222222222221</v>
+        <v>0.69236111111111109</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
-        <v>44474</v>
+        <v>45569</v>
       </c>
       <c r="B279" s="3">
-        <v>0.17152777777777775</v>
+        <v>0.1706597222222222</v>
       </c>
       <c r="C279" s="3">
-        <v>0.68958333333333333</v>
+        <v>0.69097222222222221</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
-        <v>44475</v>
+        <v>45570</v>
       </c>
       <c r="B280" s="3">
-        <v>0.1723958333333333</v>
+        <v>0.17152777777777775</v>
       </c>
       <c r="C280" s="3">
-        <v>0.68819444444444444</v>
+        <v>0.68958333333333333</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
-        <v>44476</v>
+        <v>45571</v>
       </c>
       <c r="B281" s="3">
-        <v>0.17326388888888888</v>
+        <v>0.1723958333333333</v>
       </c>
       <c r="C281" s="3">
-        <v>0.68680555555555556</v>
+        <v>0.68819444444444444</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
-        <v>44477</v>
+        <v>45572</v>
       </c>
       <c r="B282" s="3">
-        <v>0.17413194444444446</v>
+        <v>0.17326388888888888</v>
       </c>
       <c r="C282" s="3">
-        <v>0.68541666666666667</v>
+        <v>0.68680555555555556</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
-        <v>44478</v>
+        <v>45573</v>
       </c>
       <c r="B283" s="3">
-        <v>0.17500000000000002</v>
+        <v>0.17413194444444446</v>
       </c>
       <c r="C283" s="3">
-        <v>0.68402777777777779</v>
+        <v>0.68541666666666667</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
-        <v>44479</v>
+        <v>45574</v>
       </c>
       <c r="B284" s="3">
-        <v>0.17604166666666668</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="C284" s="3">
-        <v>0.68281250000000004</v>
+        <v>0.68402777777777779</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
-        <v>44480</v>
+        <v>45575</v>
       </c>
       <c r="B285" s="3">
-        <v>0.17708333333333334</v>
+        <v>0.17604166666666668</v>
       </c>
       <c r="C285" s="3">
-        <v>0.68159722222222219</v>
+        <v>0.68281250000000004</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
-        <v>44481</v>
+        <v>45576</v>
       </c>
       <c r="B286" s="3">
-        <v>0.17812500000000001</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="C286" s="3">
-        <v>0.68038194444444444</v>
+        <v>0.68159722222222219</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
-        <v>44482</v>
+        <v>45577</v>
       </c>
       <c r="B287" s="3">
-        <v>0.17916666666666667</v>
+        <v>0.17812500000000001</v>
       </c>
       <c r="C287" s="3">
-        <v>0.6791666666666667</v>
+        <v>0.68038194444444444</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
-        <v>44483</v>
+        <v>45578</v>
       </c>
       <c r="B288" s="3">
-        <v>0.18003472222222222</v>
+        <v>0.17916666666666667</v>
       </c>
       <c r="C288" s="3">
-        <v>0.67795138888888895</v>
+        <v>0.6791666666666667</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
-        <v>44484</v>
+        <v>45579</v>
       </c>
       <c r="B289" s="3">
-        <v>0.1809027777777778</v>
+        <v>0.18003472222222222</v>
       </c>
       <c r="C289" s="3">
-        <v>0.6767361111111112</v>
+        <v>0.67795138888888895</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
-        <v>44485</v>
+        <v>45580</v>
       </c>
       <c r="B290" s="3">
-        <v>0.18177083333333335</v>
+        <v>0.1809027777777778</v>
       </c>
       <c r="C290" s="3">
-        <v>0.67552083333333335</v>
+        <v>0.6767361111111112</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
-        <v>44486</v>
+        <v>45581</v>
       </c>
       <c r="B291" s="3">
-        <v>0.18263888888888891</v>
+        <v>0.18177083333333335</v>
       </c>
       <c r="C291" s="3">
-        <v>0.6743055555555556</v>
+        <v>0.67552083333333335</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
-        <v>44487</v>
+        <v>45582</v>
       </c>
       <c r="B292" s="3">
-        <v>0.18368055555555557</v>
+        <v>0.18263888888888891</v>
       </c>
       <c r="C292" s="3">
-        <v>0.67309027777777786</v>
+        <v>0.6743055555555556</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
-        <v>44488</v>
+        <v>45583</v>
       </c>
       <c r="B293" s="3">
-        <v>0.18472222222222223</v>
+        <v>0.18368055555555557</v>
       </c>
       <c r="C293" s="3">
-        <v>0.671875</v>
+        <v>0.67309027777777786</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
-        <v>44489</v>
+        <v>45584</v>
       </c>
       <c r="B294" s="3">
-        <v>0.1857638888888889</v>
+        <v>0.18472222222222223</v>
       </c>
       <c r="C294" s="3">
-        <v>0.67065972222222214</v>
+        <v>0.671875</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
-        <v>44490</v>
+        <v>45585</v>
       </c>
       <c r="B295" s="3">
-        <v>0.18680555555555556</v>
+        <v>0.1857638888888889</v>
       </c>
       <c r="C295" s="3">
-        <v>0.6694444444444444</v>
+        <v>0.67065972222222214</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
-        <v>44491</v>
+        <v>45586</v>
       </c>
       <c r="B296" s="3">
-        <v>0.18767361111111111</v>
+        <v>0.18680555555555556</v>
       </c>
       <c r="C296" s="3">
-        <v>0.66822916666666665</v>
+        <v>0.6694444444444444</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
-        <v>44492</v>
+        <v>45587</v>
       </c>
       <c r="B297" s="3">
-        <v>0.18854166666666666</v>
+        <v>0.18767361111111111</v>
       </c>
       <c r="C297" s="3">
-        <v>0.6670138888888888</v>
+        <v>0.66822916666666665</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
-        <v>44493</v>
+        <v>45588</v>
       </c>
       <c r="B298" s="3">
-        <v>0.18940972222222222</v>
+        <v>0.18854166666666666</v>
       </c>
       <c r="C298" s="3">
-        <v>0.66579861111111105</v>
+        <v>0.6670138888888888</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
-        <v>44494</v>
+        <v>45589</v>
       </c>
       <c r="B299" s="3">
-        <v>0.19027777777777777</v>
+        <v>0.18940972222222222</v>
       </c>
       <c r="C299" s="3">
-        <v>0.6645833333333333</v>
+        <v>0.66579861111111105</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
-        <v>44495</v>
+        <v>45590</v>
       </c>
       <c r="B300" s="3">
-        <v>0.19131944444444443</v>
+        <v>0.19027777777777777</v>
       </c>
       <c r="C300" s="3">
-        <v>0.6635416666666667</v>
+        <v>0.6645833333333333</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
-        <v>44496</v>
+        <v>45591</v>
       </c>
       <c r="B301" s="3">
-        <v>0.19236111111111109</v>
+        <v>0.19131944444444443</v>
       </c>
       <c r="C301" s="3">
-        <v>0.66249999999999998</v>
+        <v>0.6635416666666667</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
-        <v>44497</v>
+        <v>45592</v>
       </c>
       <c r="B302" s="3">
-        <v>0.19340277777777778</v>
+        <v>0.19236111111111109</v>
       </c>
       <c r="C302" s="3">
-        <v>0.66145833333333326</v>
+        <v>0.66249999999999998</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
-        <v>44498</v>
+        <v>45593</v>
       </c>
       <c r="B303" s="3">
-        <v>0.19444444444444445</v>
+        <v>0.19340277777777778</v>
       </c>
       <c r="C303" s="3">
-        <v>0.66041666666666665</v>
+        <v>0.66145833333333326</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
-        <v>44499</v>
+        <v>45594</v>
       </c>
       <c r="B304" s="3">
-        <v>0.19548611111111111</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C304" s="3">
-        <v>0.65937500000000004</v>
+        <v>0.66041666666666665</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
-        <v>44500</v>
+        <v>45595</v>
       </c>
       <c r="B305" s="3">
-        <v>0.19652777777777777</v>
+        <v>0.19548611111111111</v>
       </c>
       <c r="C305" s="3">
-        <v>0.65833333333333333</v>
+        <v>0.65937500000000004</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
-        <v>44501</v>
+        <v>45596</v>
       </c>
       <c r="B306" s="3">
-        <v>0.19756944444444444</v>
+        <v>0.19652777777777777</v>
       </c>
       <c r="C306" s="3">
-        <v>0.65729166666666661</v>
+        <v>0.65833333333333333</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
-        <v>44502</v>
+        <v>45597</v>
       </c>
       <c r="B307" s="3">
-        <v>0.1986111111111111</v>
+        <v>0.19756944444444444</v>
       </c>
       <c r="C307" s="3">
-        <v>0.65625</v>
+        <v>0.65729166666666661</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
-        <v>44503</v>
+        <v>45598</v>
       </c>
       <c r="B308" s="3">
-        <v>0.19947916666666665</v>
+        <v>0.1986111111111111</v>
       </c>
       <c r="C308" s="3">
-        <v>0.65538194444444442</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
-        <v>44504</v>
+        <v>45599</v>
       </c>
       <c r="B309" s="3">
-        <v>0.2003472222222222</v>
+        <v>0.19947916666666665</v>
       </c>
       <c r="C309" s="3">
-        <v>0.65451388888888884</v>
+        <v>0.65538194444444442</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
-        <v>44505</v>
+        <v>45600</v>
       </c>
       <c r="B310" s="3">
-        <v>0.20121527777777776</v>
+        <v>0.2003472222222222</v>
       </c>
       <c r="C310" s="3">
-        <v>0.65364583333333337</v>
+        <v>0.65451388888888884</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
-        <v>44506</v>
+        <v>45601</v>
       </c>
       <c r="B311" s="3">
-        <v>0.20208333333333331</v>
+        <v>0.20121527777777776</v>
       </c>
       <c r="C311" s="3">
-        <v>0.65277777777777779</v>
+        <v>0.65364583333333337</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
-        <v>44507</v>
+        <v>45602</v>
       </c>
       <c r="B312" s="3">
-        <v>0.203125</v>
+        <v>0.20208333333333331</v>
       </c>
       <c r="C312" s="3">
-        <v>0.65190972222222221</v>
+        <v>0.65277777777777779</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
-        <v>44508</v>
+        <v>45603</v>
       </c>
       <c r="B313" s="3">
-        <v>0.20416666666666666</v>
+        <v>0.203125</v>
       </c>
       <c r="C313" s="3">
-        <v>0.65104166666666674</v>
+        <v>0.65190972222222221</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
-        <v>44509</v>
+        <v>45604</v>
       </c>
       <c r="B314" s="3">
-        <v>0.20520833333333333</v>
+        <v>0.20416666666666666</v>
       </c>
       <c r="C314" s="3">
-        <v>0.65017361111111116</v>
+        <v>0.65104166666666674</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
-        <v>44510</v>
+        <v>45605</v>
       </c>
       <c r="B315" s="3">
-        <v>0.20625000000000002</v>
+        <v>0.20520833333333333</v>
       </c>
       <c r="C315" s="3">
-        <v>0.64930555555555558</v>
+        <v>0.65017361111111116</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
-        <v>44511</v>
+        <v>45606</v>
       </c>
       <c r="B316" s="3">
-        <v>0.20711805555555557</v>
+        <v>0.20625000000000002</v>
       </c>
       <c r="C316" s="3">
-        <v>0.64861111111111114</v>
+        <v>0.64930555555555558</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
-        <v>44512</v>
+        <v>45607</v>
       </c>
       <c r="B317" s="3">
-        <v>0.20798611111111112</v>
+        <v>0.20711805555555557</v>
       </c>
       <c r="C317" s="3">
-        <v>0.6479166666666667</v>
+        <v>0.64861111111111114</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
-        <v>44513</v>
+        <v>45608</v>
       </c>
       <c r="B318" s="3">
-        <v>0.20885416666666667</v>
+        <v>0.20798611111111112</v>
       </c>
       <c r="C318" s="3">
-        <v>0.64722222222222225</v>
+        <v>0.6479166666666667</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
-        <v>44514</v>
+        <v>45609</v>
       </c>
       <c r="B319" s="3">
-        <v>0.20972222222222223</v>
+        <v>0.20885416666666667</v>
       </c>
       <c r="C319" s="3">
-        <v>0.64652777777777781</v>
+        <v>0.64722222222222225</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
-        <v>44515</v>
+        <v>45610</v>
       </c>
       <c r="B320" s="3">
-        <v>0.21059027777777778</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="C320" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.64652777777777781</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
-        <v>44516</v>
+        <v>45611</v>
       </c>
       <c r="B321" s="3">
-        <v>0.21145833333333333</v>
+        <v>0.21059027777777778</v>
       </c>
       <c r="C321" s="3">
-        <v>0.64513888888888893</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
-        <v>44517</v>
+        <v>45612</v>
       </c>
       <c r="B322" s="3">
-        <v>0.21232638888888888</v>
+        <v>0.21145833333333333</v>
       </c>
       <c r="C322" s="3">
-        <v>0.64444444444444438</v>
+        <v>0.64513888888888893</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
-        <v>44518</v>
+        <v>45613</v>
       </c>
       <c r="B323" s="3">
-        <v>0.21319444444444444</v>
+        <v>0.21232638888888888</v>
       </c>
       <c r="C323" s="3">
-        <v>0.64374999999999993</v>
+        <v>0.64444444444444438</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
-        <v>44519</v>
+        <v>45614</v>
       </c>
       <c r="B324" s="3">
-        <v>0.2142361111111111</v>
+        <v>0.21319444444444444</v>
       </c>
       <c r="C324" s="3">
-        <v>0.64322916666666663</v>
+        <v>0.64374999999999993</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
-        <v>44520</v>
+        <v>45615</v>
       </c>
       <c r="B325" s="3">
-        <v>0.21527777777777779</v>
+        <v>0.2142361111111111</v>
       </c>
       <c r="C325" s="3">
-        <v>0.64270833333333333</v>
+        <v>0.64322916666666663</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
-        <v>44521</v>
+        <v>45616</v>
       </c>
       <c r="B326" s="3">
-        <v>0.21631944444444445</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="C326" s="3">
-        <v>0.64218750000000002</v>
+        <v>0.64270833333333333</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
-        <v>44522</v>
+        <v>45617</v>
       </c>
       <c r="B327" s="3">
-        <v>0.21736111111111112</v>
+        <v>0.21631944444444445</v>
       </c>
       <c r="C327" s="3">
-        <v>0.64166666666666672</v>
+        <v>0.64218750000000002</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
-        <v>44523</v>
+        <v>45618</v>
       </c>
       <c r="B328" s="3">
-        <v>0.21822916666666667</v>
+        <v>0.21736111111111112</v>
       </c>
       <c r="C328" s="3">
-        <v>0.6411458333333333</v>
+        <v>0.64166666666666672</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
-        <v>44524</v>
+        <v>45619</v>
       </c>
       <c r="B329" s="3">
-        <v>0.21909722222222222</v>
+        <v>0.21822916666666667</v>
       </c>
       <c r="C329" s="3">
-        <v>0.640625</v>
+        <v>0.6411458333333333</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
-        <v>44525</v>
+        <v>45620</v>
       </c>
       <c r="B330" s="3">
-        <v>0.21996527777777777</v>
+        <v>0.21909722222222222</v>
       </c>
       <c r="C330" s="3">
-        <v>0.6401041666666667</v>
+        <v>0.640625</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
-        <v>44526</v>
+        <v>45621</v>
       </c>
       <c r="B331" s="3">
-        <v>0.22083333333333333</v>
+        <v>0.21996527777777777</v>
       </c>
       <c r="C331" s="3">
-        <v>0.63958333333333328</v>
+        <v>0.6401041666666667</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
-        <v>44527</v>
+        <v>45622</v>
       </c>
       <c r="B332" s="3">
-        <v>0.22152777777777777</v>
+        <v>0.22083333333333333</v>
       </c>
       <c r="C332" s="3">
-        <v>0.63923611111111112</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
-        <v>44528</v>
+        <v>45623</v>
       </c>
       <c r="B333" s="3">
-        <v>0.22222222222222221</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="C333" s="3">
-        <v>0.63888888888888884</v>
+        <v>0.63923611111111112</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
-        <v>44529</v>
+        <v>45624</v>
       </c>
       <c r="B334" s="3">
-        <v>0.22291666666666665</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="C334" s="3">
-        <v>0.63854166666666656</v>
+        <v>0.63888888888888884</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
-        <v>44530</v>
+        <v>45625</v>
       </c>
       <c r="B335" s="3">
-        <v>0.22361111111111109</v>
+        <v>0.22291666666666665</v>
       </c>
       <c r="C335" s="3">
-        <v>0.6381944444444444</v>
+        <v>0.63854166666666656</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
-        <v>44531</v>
+        <v>45626</v>
       </c>
       <c r="B336" s="3">
-        <v>0.22447916666666665</v>
+        <v>0.22361111111111109</v>
       </c>
       <c r="C336" s="3">
-        <v>0.63802083333333326</v>
+        <v>0.6381944444444444</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
-        <v>44532</v>
+        <v>45627</v>
       </c>
       <c r="B337" s="3">
-        <v>0.2253472222222222</v>
+        <v>0.22447916666666665</v>
       </c>
       <c r="C337" s="3">
-        <v>0.63784722222222223</v>
+        <v>0.63802083333333326</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
-        <v>44533</v>
+        <v>45628</v>
       </c>
       <c r="B338" s="3">
-        <v>0.22621527777777778</v>
+        <v>0.2253472222222222</v>
       </c>
       <c r="C338" s="3">
-        <v>0.6376736111111112</v>
+        <v>0.63784722222222223</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
-        <v>44534</v>
+        <v>45629</v>
       </c>
       <c r="B339" s="3">
-        <v>0.22708333333333333</v>
+        <v>0.22621527777777778</v>
       </c>
       <c r="C339" s="3">
-        <v>0.63750000000000007</v>
+        <v>0.6376736111111112</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
-        <v>44535</v>
+        <v>45630</v>
       </c>
       <c r="B340" s="3">
-        <v>0.22777777777777777</v>
+        <v>0.22708333333333333</v>
       </c>
       <c r="C340" s="3">
         <v>0.63750000000000007</v>
@@ -4149,10 +8927,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
-        <v>44536</v>
+        <v>45631</v>
       </c>
       <c r="B341" s="3">
-        <v>0.22847222222222222</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="C341" s="3">
         <v>0.63750000000000007</v>
@@ -4160,10 +8938,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
-        <v>44537</v>
+        <v>45632</v>
       </c>
       <c r="B342" s="3">
-        <v>0.22916666666666666</v>
+        <v>0.22847222222222222</v>
       </c>
       <c r="C342" s="3">
         <v>0.63750000000000007</v>
@@ -4171,10 +8949,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
-        <v>44538</v>
+        <v>45633</v>
       </c>
       <c r="B343" s="3">
-        <v>0.2298611111111111</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C343" s="3">
         <v>0.63750000000000007</v>
@@ -4182,10 +8960,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
-        <v>44539</v>
+        <v>45634</v>
       </c>
       <c r="B344" s="3">
-        <v>0.23038194444444443</v>
+        <v>0.2298611111111111</v>
       </c>
       <c r="C344" s="3">
         <v>0.63750000000000007</v>
@@ -4193,10 +8971,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
-        <v>44540</v>
+        <v>45635</v>
       </c>
       <c r="B345" s="3">
-        <v>0.23090277777777776</v>
+        <v>0.23038194444444443</v>
       </c>
       <c r="C345" s="3">
         <v>0.63750000000000007</v>
@@ -4204,10 +8982,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
-        <v>44541</v>
+        <v>45636</v>
       </c>
       <c r="B346" s="3">
-        <v>0.23142361111111109</v>
+        <v>0.23090277777777776</v>
       </c>
       <c r="C346" s="3">
         <v>0.63750000000000007</v>
@@ -4215,10 +8993,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
-        <v>44542</v>
+        <v>45637</v>
       </c>
       <c r="B347" s="3">
-        <v>0.23194444444444443</v>
+        <v>0.23142361111111109</v>
       </c>
       <c r="C347" s="3">
         <v>0.63750000000000007</v>
@@ -4226,211 +9004,222 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
-        <v>44543</v>
+        <v>45638</v>
       </c>
       <c r="B348" s="3">
-        <v>0.23246527777777776</v>
+        <v>0.23194444444444443</v>
       </c>
       <c r="C348" s="3">
-        <v>0.6376736111111112</v>
+        <v>0.63750000000000007</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
-        <v>44544</v>
+        <v>45639</v>
       </c>
       <c r="B349" s="3">
-        <v>0.23298611111111112</v>
+        <v>0.23246527777777776</v>
       </c>
       <c r="C349" s="3">
-        <v>0.63784722222222223</v>
+        <v>0.6376736111111112</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
-        <v>44545</v>
+        <v>45640</v>
       </c>
       <c r="B350" s="3">
-        <v>0.23350694444444448</v>
+        <v>0.23298611111111112</v>
       </c>
       <c r="C350" s="3">
-        <v>0.63802083333333326</v>
+        <v>0.63784722222222223</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
-        <v>44546</v>
+        <v>45641</v>
       </c>
       <c r="B351" s="3">
-        <v>0.23402777777777781</v>
+        <v>0.23350694444444448</v>
       </c>
       <c r="C351" s="3">
-        <v>0.6381944444444444</v>
+        <v>0.63802083333333326</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
-        <v>44547</v>
+        <v>45642</v>
       </c>
       <c r="B352" s="3">
-        <v>0.23437500000000003</v>
+        <v>0.23402777777777781</v>
       </c>
       <c r="C352" s="3">
-        <v>0.63854166666666656</v>
+        <v>0.6381944444444444</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
-        <v>44548</v>
+        <v>45643</v>
       </c>
       <c r="B353" s="3">
-        <v>0.23472222222222225</v>
+        <v>0.23437500000000003</v>
       </c>
       <c r="C353" s="3">
-        <v>0.63888888888888884</v>
+        <v>0.63854166666666656</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
-        <v>44549</v>
+        <v>45644</v>
       </c>
       <c r="B354" s="3">
-        <v>0.23506944444444447</v>
+        <v>0.23472222222222225</v>
       </c>
       <c r="C354" s="3">
-        <v>0.63923611111111112</v>
+        <v>0.63888888888888884</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
-        <v>44550</v>
+        <v>45645</v>
       </c>
       <c r="B355" s="3">
-        <v>0.23541666666666669</v>
+        <v>0.23506944444444447</v>
       </c>
       <c r="C355" s="3">
-        <v>0.63958333333333328</v>
+        <v>0.63923611111111112</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
-        <v>44551</v>
+        <v>45646</v>
       </c>
       <c r="B356" s="3">
-        <v>0.23576388888888891</v>
+        <v>0.23541666666666669</v>
       </c>
       <c r="C356" s="3">
-        <v>0.63993055555555545</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
-        <v>44552</v>
+        <v>45647</v>
       </c>
       <c r="B357" s="3">
-        <v>0.23611111111111113</v>
+        <v>0.23576388888888891</v>
       </c>
       <c r="C357" s="3">
-        <v>0.64027777777777772</v>
+        <v>0.63993055555555545</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
-        <v>44553</v>
+        <v>45648</v>
       </c>
       <c r="B358" s="3">
-        <v>0.23645833333333335</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="C358" s="3">
-        <v>0.640625</v>
+        <v>0.64027777777777772</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
-        <v>44554</v>
+        <v>45649</v>
       </c>
       <c r="B359" s="3">
-        <v>0.23680555555555557</v>
+        <v>0.23645833333333335</v>
       </c>
       <c r="C359" s="3">
-        <v>0.64097222222222217</v>
+        <v>0.640625</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
-        <v>44555</v>
+        <v>45650</v>
       </c>
       <c r="B360" s="3">
-        <v>0.23697916666666669</v>
+        <v>0.23680555555555557</v>
       </c>
       <c r="C360" s="3">
-        <v>0.64149305555555558</v>
+        <v>0.64097222222222217</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
-        <v>44556</v>
+        <v>45651</v>
       </c>
       <c r="B361" s="3">
-        <v>0.2371527777777778</v>
+        <v>0.23697916666666669</v>
       </c>
       <c r="C361" s="3">
-        <v>0.64201388888888888</v>
+        <v>0.64149305555555558</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
-        <v>44557</v>
+        <v>45652</v>
       </c>
       <c r="B362" s="3">
-        <v>0.23732638888888891</v>
+        <v>0.2371527777777778</v>
       </c>
       <c r="C362" s="3">
-        <v>0.64253472222222219</v>
+        <v>0.64201388888888888</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
-        <v>44558</v>
+        <v>45653</v>
       </c>
       <c r="B363" s="3">
-        <v>0.23750000000000002</v>
+        <v>0.23732638888888891</v>
       </c>
       <c r="C363" s="3">
-        <v>0.6430555555555556</v>
+        <v>0.64253472222222219</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
-        <v>44559</v>
+        <v>45654</v>
       </c>
       <c r="B364" s="3">
-        <v>0.23750533013151401</v>
+        <v>0.23750000000000002</v>
       </c>
       <c r="C364" s="3">
-        <v>0.64306998743211097</v>
+        <v>0.6430555555555556</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
-        <v>44560</v>
+        <v>45655</v>
       </c>
       <c r="B365" s="3">
-        <v>0.23751066026302797</v>
+        <v>0.23750520217286547</v>
       </c>
       <c r="C365" s="3">
-        <v>0.64308441930866644</v>
+        <v>0.64306964097097497</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
-        <v>44561</v>
+        <v>45656</v>
       </c>
       <c r="B366" s="3">
-        <v>0.23751599039454196</v>
+        <v>0.23751040434573095</v>
       </c>
       <c r="C366" s="3">
-        <v>0.64309885118522181</v>
+        <v>0.64308372638639433</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>45657</v>
+      </c>
+      <c r="B367">
+        <v>0.23751560651859641</v>
+      </c>
+      <c r="C367">
+        <v>0.64309781180181369</v>
       </c>
     </row>
   </sheetData>
